--- a/capiq_data/in_process_data/IQ13651733.xlsx
+++ b/capiq_data/in_process_data/IQ13651733.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A37FEA-55DC-4193-979B-63CED139B6A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EA5DA5-DCBE-4400-920C-3F0D6CC4F9C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"20a035cc-b227-40c7-b009-3f154612bd7a"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"60e0098f-4981-487e-9f4d-faade47bfa3e"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$70</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$70</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$70</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$70</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$70</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$70</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$70</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$70</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$70</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$70</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$70</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$70</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$70</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$70</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$70</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$70</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$70</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$70</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$70</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$70</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$70</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$70</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$70</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$70</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$70</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$70</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$70</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -175,6 +175,87 @@
     <t>IQ_NI</t>
   </si>
   <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
     <t>FQ42010</t>
   </si>
   <si>
@@ -296,6 +377,9 @@
   </si>
   <si>
     <t>FQ42020</t>
+  </si>
+  <si>
+    <t>FQ12021</t>
   </si>
 </sst>
 </file>
@@ -639,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,76 +817,76 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40512</v>
+        <v>38046</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>37.880000000000003</v>
+        <v>12.728999999999999</v>
       </c>
       <c r="D2">
-        <v>280.17200000000003</v>
+        <v>91.373999999999995</v>
       </c>
       <c r="E2">
-        <v>256.55200000000002</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>158.90700000000001</v>
+        <v>50.445</v>
       </c>
       <c r="G2">
-        <v>552.73400000000004</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2155.7020000000002</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>35.853999999999999</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>275.09500000000003</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>19.053999999999998</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="N2">
-        <v>578.26800000000003</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>979.62099999999998</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>294.149</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="Q2">
-        <v>-56.415999999999997</v>
+        <v>9.08</v>
       </c>
       <c r="R2">
-        <v>40512</v>
+        <v>38046</v>
       </c>
       <c r="S2">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1176.0809999999999</v>
+        <v>361.65</v>
       </c>
       <c r="U2">
-        <v>200.73500000000001</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>44.872999999999998</v>
+        <v>25.77</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>149.715</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -811,81 +895,81 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>37.880000000000003</v>
+        <v>12.728999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40602</v>
+        <v>38138</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>31.937000000000001</v>
+        <v>10.423</v>
       </c>
       <c r="D3">
-        <v>293.14299999999997</v>
+        <v>90.275000000000006</v>
       </c>
       <c r="E3">
-        <v>288.15499999999997</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>165.70400000000001</v>
+        <v>49.786000000000001</v>
       </c>
       <c r="G3">
-        <v>655.21799999999996</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2282.3389999999999</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>41.22</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>281.303</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>17.114999999999998</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-315.83199999999999</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>634.60799999999995</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1044.366</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>298.41800000000001</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>50.942</v>
+        <v>24.433</v>
       </c>
       <c r="R3">
-        <v>40602</v>
+        <v>38138</v>
       </c>
       <c r="S3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1237.973</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>251.67699999999999</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>79.268000000000001</v>
+        <v>16.821000000000002</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-14.209</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="Y3">
         <v>0</v>
@@ -894,42 +978,42 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>31.937000000000001</v>
+        <v>10.423</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40694</v>
+        <v>38230</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>39.941000000000003</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>323.12099999999998</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>244.239</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>181.14099999999999</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>508.827</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2378.8429999999998</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>40.43</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>277.553</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>17.12</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +1022,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>656.51199999999994</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1077.318</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>295.673</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-104.563</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>40694</v>
+        <v>38230</v>
       </c>
       <c r="S4">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>1301.5250000000001</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>147.114</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>121.71299999999999</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-3.4119999999999999</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +1061,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>39.941000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40786</v>
+        <v>38321</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>40.808999999999997</v>
+        <v>26.931000000000001</v>
       </c>
       <c r="D5">
-        <v>338.71800000000002</v>
+        <v>118.44</v>
       </c>
       <c r="E5">
-        <v>248.864</v>
+        <v>117.873</v>
       </c>
       <c r="F5">
-        <v>193.929</v>
+        <v>60.790999999999997</v>
       </c>
       <c r="G5">
-        <v>570.85500000000002</v>
+        <v>291.85000000000002</v>
       </c>
       <c r="H5">
-        <v>2980.0819999999999</v>
+        <v>752.64400000000001</v>
       </c>
       <c r="I5">
-        <v>30.541</v>
+        <v>39.515999999999998</v>
       </c>
       <c r="J5">
-        <v>527.50300000000004</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="K5">
-        <v>287.07799999999997</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,37 +1105,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>904.221</v>
+        <v>272.23599999999999</v>
       </c>
       <c r="O5">
-        <v>1626.325</v>
+        <v>330.38400000000001</v>
       </c>
       <c r="P5">
-        <v>814.58100000000002</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="Q5">
-        <v>55.758000000000003</v>
+        <v>55.615000000000002</v>
       </c>
       <c r="R5">
-        <v>40786</v>
+        <v>38321</v>
       </c>
       <c r="S5">
-        <v>5100</v>
+        <v>2300</v>
       </c>
       <c r="T5">
-        <v>1353.7570000000001</v>
+        <v>422.26</v>
       </c>
       <c r="U5">
-        <v>202.87200000000001</v>
+        <v>124.452</v>
       </c>
       <c r="V5">
-        <v>52.261000000000003</v>
+        <v>15.981999999999999</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>511.221</v>
+        <v>-1.86</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1060,39 +1144,39 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>40.808999999999997</v>
+        <v>26.931000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40877</v>
+        <v>38411</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>22.728000000000002</v>
+        <v>13.132999999999999</v>
       </c>
       <c r="D6">
-        <v>370.65600000000001</v>
+        <v>116.983</v>
       </c>
       <c r="E6">
-        <v>326.00900000000001</v>
+        <v>125.50700000000001</v>
       </c>
       <c r="F6">
-        <v>181.43700000000001</v>
+        <v>62.456000000000003</v>
       </c>
       <c r="G6">
-        <v>698.07799999999997</v>
+        <v>310.44299999999998</v>
       </c>
       <c r="H6">
-        <v>3073.0369999999998</v>
+        <v>768.85799999999995</v>
       </c>
       <c r="I6">
-        <v>32.427999999999997</v>
+        <v>37.415999999999997</v>
       </c>
       <c r="J6">
-        <v>658.91099999999994</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1101,40 +1185,40 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="N6">
-        <v>816.85699999999997</v>
+        <v>273.68</v>
       </c>
       <c r="O6">
-        <v>1688.308</v>
+        <v>319.13400000000001</v>
       </c>
       <c r="P6">
-        <v>803.47400000000005</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="Q6">
-        <v>31.812999999999999</v>
+        <v>8.2629999999999999</v>
       </c>
       <c r="R6">
-        <v>40877</v>
+        <v>38411</v>
       </c>
       <c r="S6">
-        <v>5500</v>
+        <v>2300</v>
       </c>
       <c r="T6">
-        <v>1384.729</v>
+        <v>449.72399999999999</v>
       </c>
       <c r="U6">
-        <v>234.685</v>
+        <v>132.715</v>
       </c>
       <c r="V6">
-        <v>88.808000000000007</v>
+        <v>11.121</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-10.782999999999999</v>
+        <v>-1.7000000000000001E-2</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1143,81 +1227,81 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>22.728000000000002</v>
+        <v>13.132999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40968</v>
+        <v>38503</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>23.475000000000001</v>
+        <v>8.6460000000000008</v>
       </c>
       <c r="D7">
-        <v>342.74299999999999</v>
+        <v>115.145</v>
       </c>
       <c r="E7">
-        <v>354.25900000000001</v>
+        <v>98.084999999999994</v>
       </c>
       <c r="F7">
-        <v>194.15299999999999</v>
+        <v>58.837000000000003</v>
       </c>
       <c r="G7">
-        <v>807.17600000000004</v>
+        <v>296.173</v>
       </c>
       <c r="H7">
-        <v>3193.277</v>
+        <v>750.49900000000002</v>
       </c>
       <c r="I7">
-        <v>33.915999999999997</v>
+        <v>26.364000000000001</v>
       </c>
       <c r="J7">
-        <v>729.31100000000004</v>
+        <v>0.36</v>
       </c>
       <c r="K7">
-        <v>142.94499999999999</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-20.446999999999999</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>879.57899999999995</v>
+        <v>253.827</v>
       </c>
       <c r="O7">
-        <v>1764.5719999999999</v>
+        <v>317.65499999999997</v>
       </c>
       <c r="P7">
-        <v>872.25599999999997</v>
+        <v>0.372</v>
       </c>
       <c r="Q7">
-        <v>61.901000000000003</v>
+        <v>8.9580000000000002</v>
       </c>
       <c r="R7">
-        <v>40968</v>
+        <v>38503</v>
       </c>
       <c r="S7">
-        <v>5500</v>
+        <v>2300</v>
       </c>
       <c r="T7">
-        <v>1428.7049999999999</v>
+        <v>432.84399999999999</v>
       </c>
       <c r="U7">
-        <v>296.58600000000001</v>
+        <v>141.673</v>
       </c>
       <c r="V7">
-        <v>32.982999999999997</v>
+        <v>13.208</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>46.051000000000002</v>
+        <v>-0.253</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1226,42 +1310,42 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>23.475000000000001</v>
+        <v>8.6460000000000008</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41060</v>
+        <v>38595</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>44.191000000000003</v>
+        <v>3.66</v>
       </c>
       <c r="D8">
-        <v>387.15899999999999</v>
+        <v>117.95699999999999</v>
       </c>
       <c r="E8">
-        <v>289.05500000000001</v>
+        <v>80.150999999999996</v>
       </c>
       <c r="F8">
-        <v>219.89099999999999</v>
+        <v>61.575000000000003</v>
       </c>
       <c r="G8">
-        <v>707.93799999999999</v>
+        <v>285.072</v>
       </c>
       <c r="H8">
-        <v>3198.6190000000001</v>
+        <v>742.96699999999998</v>
       </c>
       <c r="I8">
-        <v>38.648000000000003</v>
+        <v>17.158999999999999</v>
       </c>
       <c r="J8">
-        <v>677.26499999999999</v>
+        <v>0.26</v>
       </c>
       <c r="K8">
-        <v>170.196</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1354,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>882.46799999999996</v>
+        <v>237.06200000000001</v>
       </c>
       <c r="O8">
-        <v>1719.0709999999999</v>
+        <v>301.83</v>
       </c>
       <c r="P8">
-        <v>847.46100000000001</v>
+        <v>0.26</v>
       </c>
       <c r="Q8">
-        <v>-28.370999999999999</v>
+        <v>-3.9060000000000001</v>
       </c>
       <c r="R8">
-        <v>41060</v>
+        <v>38595</v>
       </c>
       <c r="S8">
-        <v>6000</v>
+        <v>2300</v>
       </c>
       <c r="T8">
-        <v>1479.548</v>
+        <v>441.137</v>
       </c>
       <c r="U8">
-        <v>268.21499999999997</v>
+        <v>137.767</v>
       </c>
       <c r="V8">
-        <v>145.191</v>
+        <v>12.49</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-25.056999999999999</v>
+        <v>-0.12</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-17.771000000000001</v>
       </c>
       <c r="AA8">
-        <v>44.191000000000003</v>
+        <v>3.66</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41152</v>
+        <v>38686</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>44.082000000000001</v>
+        <v>16.358000000000001</v>
       </c>
       <c r="D9">
-        <v>385.60899999999998</v>
+        <v>126.032</v>
       </c>
       <c r="E9">
-        <v>289.548</v>
+        <v>136.94999999999999</v>
       </c>
       <c r="F9">
-        <v>229.86199999999999</v>
+        <v>69.168000000000006</v>
       </c>
       <c r="G9">
-        <v>734.09199999999998</v>
+        <v>346.44499999999999</v>
       </c>
       <c r="H9">
-        <v>3448.172</v>
+        <v>807.15599999999995</v>
       </c>
       <c r="I9">
-        <v>36.795000000000002</v>
+        <v>41.625</v>
       </c>
       <c r="J9">
-        <v>841.303</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="K9">
-        <v>124.208</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,244 +1437,244 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>854.57</v>
+        <v>282.85700000000003</v>
       </c>
       <c r="O9">
-        <v>1879.5329999999999</v>
+        <v>329.66699999999997</v>
       </c>
       <c r="P9">
-        <v>1011.511</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="Q9">
-        <v>30.218</v>
+        <v>-5.4020000000000001</v>
       </c>
       <c r="R9">
-        <v>41152</v>
+        <v>38686</v>
       </c>
       <c r="S9">
-        <v>6000</v>
+        <v>2300</v>
       </c>
       <c r="T9">
-        <v>1568.6389999999999</v>
+        <v>477.48899999999998</v>
       </c>
       <c r="U9">
-        <v>298.43299999999999</v>
+        <v>132.36500000000001</v>
       </c>
       <c r="V9">
-        <v>68.081999999999994</v>
+        <v>11.471</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>162.62899999999999</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-9.5120000000000005</v>
       </c>
       <c r="AA9">
-        <v>44.082000000000001</v>
+        <v>16.358000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41243</v>
+        <v>38776</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>46.42</v>
+        <v>13.464</v>
       </c>
       <c r="D10">
-        <v>414.358</v>
+        <v>129.86600000000001</v>
       </c>
       <c r="E10">
-        <v>372.11700000000002</v>
+        <v>146.268</v>
       </c>
       <c r="F10">
-        <v>236.53200000000001</v>
+        <v>69.519000000000005</v>
       </c>
       <c r="G10">
-        <v>863.88300000000004</v>
+        <v>347.56799999999998</v>
       </c>
       <c r="H10">
-        <v>3549.2109999999998</v>
+        <v>850.33299999999997</v>
       </c>
       <c r="I10">
-        <v>52.079000000000001</v>
+        <v>42.487000000000002</v>
       </c>
       <c r="J10">
-        <v>890.92200000000003</v>
+        <v>0.249</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-1.6E-2</v>
       </c>
       <c r="N10">
-        <v>876.93700000000001</v>
+        <v>300.02499999999998</v>
       </c>
       <c r="O10">
-        <v>1964.8530000000001</v>
+        <v>350.096</v>
       </c>
       <c r="P10">
-        <v>1064.6110000000001</v>
+        <v>0.749</v>
       </c>
       <c r="Q10">
-        <v>46.575000000000003</v>
+        <v>-6.6360000000000001</v>
       </c>
       <c r="R10">
-        <v>41243</v>
+        <v>38776</v>
       </c>
       <c r="S10">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>1584.3579999999999</v>
+        <v>500.23700000000002</v>
       </c>
       <c r="U10">
-        <v>345.00799999999998</v>
+        <v>125.729</v>
       </c>
       <c r="V10">
-        <v>68.117000000000004</v>
+        <v>22.507999999999999</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>-4.2119999999999997</v>
+        <v>1.9530000000000001</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1.345</v>
       </c>
       <c r="AA10">
-        <v>46.42</v>
+        <v>13.464</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41333</v>
+        <v>38868</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>24.670999999999999</v>
+        <v>12.933999999999999</v>
       </c>
       <c r="D11">
-        <v>382.52499999999998</v>
+        <v>132.85499999999999</v>
       </c>
       <c r="E11">
-        <v>412.97399999999999</v>
+        <v>109.515</v>
       </c>
       <c r="F11">
-        <v>220.21</v>
+        <v>70.701999999999998</v>
       </c>
       <c r="G11">
-        <v>876.072</v>
+        <v>352.76499999999999</v>
       </c>
       <c r="H11">
-        <v>3567.9490000000001</v>
+        <v>867.17</v>
       </c>
       <c r="I11">
-        <v>53.167000000000002</v>
+        <v>22.202999999999999</v>
       </c>
       <c r="J11">
-        <v>886.02300000000002</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-53.786000000000001</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>978.45699999999999</v>
+        <v>292.45499999999998</v>
       </c>
       <c r="O11">
-        <v>2029.0419999999999</v>
+        <v>342.798</v>
       </c>
       <c r="P11">
-        <v>1055.5340000000001</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="Q11">
-        <v>-26.311</v>
+        <v>44.268000000000001</v>
       </c>
       <c r="R11">
-        <v>41333</v>
+        <v>38868</v>
       </c>
       <c r="S11">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1538.9069999999999</v>
+        <v>524.37199999999996</v>
       </c>
       <c r="U11">
-        <v>318.697</v>
+        <v>169.99700000000001</v>
       </c>
       <c r="V11">
-        <v>131.68600000000001</v>
+        <v>42.654000000000003</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-79.340999999999994</v>
+        <v>0.15</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>7.5919999999999996</v>
       </c>
       <c r="AA11">
-        <v>24.670999999999999</v>
+        <v>12.933999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41425</v>
+        <v>38960</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>42.89</v>
+        <v>16.074000000000002</v>
       </c>
       <c r="D12">
-        <v>418.14299999999997</v>
+        <v>139.923</v>
       </c>
       <c r="E12">
-        <v>350.08800000000002</v>
+        <v>97.486000000000004</v>
       </c>
       <c r="F12">
-        <v>243.477</v>
+        <v>76.697999999999993</v>
       </c>
       <c r="G12">
-        <v>757.15</v>
+        <v>311.68700000000001</v>
       </c>
       <c r="H12">
-        <v>3572.9409999999998</v>
+        <v>876.74300000000005</v>
       </c>
       <c r="I12">
-        <v>51.767000000000003</v>
+        <v>20.61</v>
       </c>
       <c r="J12">
-        <v>842.33799999999997</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,81 +1686,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>946.04200000000003</v>
+        <v>278.60899999999998</v>
       </c>
       <c r="O12">
-        <v>1960.0809999999999</v>
+        <v>326.005</v>
       </c>
       <c r="P12">
-        <v>1011.819</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="Q12">
-        <v>-51.566000000000003</v>
+        <v>-8.3659999999999997</v>
       </c>
       <c r="R12">
-        <v>41425</v>
+        <v>38960</v>
       </c>
       <c r="S12">
-        <v>6700</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>1612.86</v>
+        <v>550.73800000000006</v>
       </c>
       <c r="U12">
-        <v>267.13099999999997</v>
+        <v>161.631</v>
       </c>
       <c r="V12">
-        <v>129.47999999999999</v>
+        <v>28.99</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>-43.938000000000002</v>
+        <v>5.07</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>12.381</v>
       </c>
       <c r="AA12">
-        <v>42.89</v>
+        <v>16.074000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41517</v>
+        <v>39051</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>23.361999999999998</v>
+        <v>13.872999999999999</v>
       </c>
       <c r="D13">
-        <v>480.28800000000001</v>
+        <v>148.126</v>
       </c>
       <c r="E13">
-        <v>395.584</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="F13">
-        <v>279.767</v>
+        <v>84.173000000000002</v>
       </c>
       <c r="G13">
-        <v>828.21400000000006</v>
+        <v>380.92200000000003</v>
       </c>
       <c r="H13">
-        <v>5322.3680000000004</v>
+        <v>944.30100000000004</v>
       </c>
       <c r="I13">
-        <v>56.194000000000003</v>
+        <v>45.622</v>
       </c>
       <c r="J13">
-        <v>1915.5239999999999</v>
+        <v>7.3999999999999996E-2</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,78 +1769,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1178.2090000000001</v>
+        <v>331.161</v>
       </c>
       <c r="O13">
-        <v>3519.9949999999999</v>
+        <v>378.733</v>
       </c>
       <c r="P13">
-        <v>2309.7719999999999</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="Q13">
-        <v>3.8639999999999999</v>
+        <v>18.402999999999999</v>
       </c>
       <c r="R13">
-        <v>41517</v>
+        <v>39051</v>
       </c>
       <c r="S13">
-        <v>8000</v>
+        <v>2500</v>
       </c>
       <c r="T13">
-        <v>1802.373</v>
+        <v>565.56799999999998</v>
       </c>
       <c r="U13">
-        <v>270.995</v>
+        <v>180.03399999999999</v>
       </c>
       <c r="V13">
-        <v>83.203000000000003</v>
+        <v>21.581</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>1277.713</v>
+        <v>-4.3719999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>4.343</v>
       </c>
       <c r="AA13">
-        <v>23.361999999999998</v>
+        <v>13.872999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41608</v>
+        <v>39141</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>40.81</v>
+        <v>18.376999999999999</v>
       </c>
       <c r="D14">
-        <v>559.67499999999995</v>
+        <v>152.62100000000001</v>
       </c>
       <c r="E14">
-        <v>459.26299999999998</v>
+        <v>160.88200000000001</v>
       </c>
       <c r="F14">
-        <v>337.37400000000002</v>
+        <v>87.150999999999996</v>
       </c>
       <c r="G14">
-        <v>880.84</v>
+        <v>401.63499999999999</v>
       </c>
       <c r="H14">
-        <v>5359.6130000000003</v>
+        <v>968.45</v>
       </c>
       <c r="I14">
-        <v>57.000999999999998</v>
+        <v>36.610999999999997</v>
       </c>
       <c r="J14">
-        <v>1779.0650000000001</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1765,81 +1849,81 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>-0.53700000000000003</v>
       </c>
       <c r="N14">
-        <v>1246.4349999999999</v>
+        <v>346.34100000000001</v>
       </c>
       <c r="O14">
-        <v>3452.65</v>
+        <v>387.42200000000003</v>
       </c>
       <c r="P14">
-        <v>2174.5920000000001</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="Q14">
-        <v>-12.628</v>
+        <v>6.18</v>
       </c>
       <c r="R14">
-        <v>41608</v>
+        <v>39141</v>
       </c>
       <c r="S14">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1906.963</v>
+        <v>581.02800000000002</v>
       </c>
       <c r="U14">
-        <v>258.36700000000002</v>
+        <v>186.214</v>
       </c>
       <c r="V14">
-        <v>151.786</v>
+        <v>23.097000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-147.98400000000001</v>
+        <v>-8.1959999999999997</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>2.008</v>
       </c>
       <c r="AA14">
-        <v>40.81</v>
+        <v>18.376999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41698</v>
+        <v>39233</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>32.421999999999997</v>
+        <v>18.582000000000001</v>
       </c>
       <c r="D15">
-        <v>524.45799999999997</v>
+        <v>154.9</v>
       </c>
       <c r="E15">
-        <v>524.01</v>
+        <v>126.54900000000001</v>
       </c>
       <c r="F15">
-        <v>308.697</v>
+        <v>87.501000000000005</v>
       </c>
       <c r="G15">
-        <v>911.57299999999998</v>
+        <v>397.67200000000003</v>
       </c>
       <c r="H15">
-        <v>5359.92</v>
+        <v>977.654</v>
       </c>
       <c r="I15">
-        <v>57.42</v>
+        <v>20.457999999999998</v>
       </c>
       <c r="J15">
-        <v>1819.704</v>
+        <v>1.51</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1848,40 +1932,40 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-174.56800000000001</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1178.175</v>
+        <v>331.04199999999997</v>
       </c>
       <c r="O15">
-        <v>3419.105</v>
+        <v>373.6</v>
       </c>
       <c r="P15">
-        <v>2037.1969999999999</v>
+        <v>1.51</v>
       </c>
       <c r="Q15">
-        <v>-53.311999999999998</v>
+        <v>26.071999999999999</v>
       </c>
       <c r="R15">
-        <v>41698</v>
+        <v>39233</v>
       </c>
       <c r="S15">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>1940.8150000000001</v>
+        <v>604.05399999999997</v>
       </c>
       <c r="U15">
-        <v>205.05500000000001</v>
+        <v>212.286</v>
       </c>
       <c r="V15">
-        <v>153.86099999999999</v>
+        <v>42.664999999999999</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-179.16800000000001</v>
+        <v>-7.8460000000000001</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +1974,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>32.421999999999997</v>
+        <v>18.582000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41790</v>
+        <v>39325</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>55.491999999999997</v>
+        <v>21.731000000000002</v>
       </c>
       <c r="D16">
-        <v>568.00800000000004</v>
+        <v>183.35599999999999</v>
       </c>
       <c r="E16">
-        <v>416.77100000000002</v>
+        <v>142.00899999999999</v>
       </c>
       <c r="F16">
-        <v>340.22899999999998</v>
+        <v>100.05</v>
       </c>
       <c r="G16">
-        <v>820.875</v>
+        <v>353.02300000000002</v>
       </c>
       <c r="H16">
-        <v>5248.4660000000003</v>
+        <v>1238.0360000000001</v>
       </c>
       <c r="I16">
-        <v>57.372</v>
+        <v>20.652000000000001</v>
       </c>
       <c r="J16">
-        <v>1715.595</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.0619999999999998</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2018,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1073.127</v>
+        <v>350.85599999999999</v>
       </c>
       <c r="O16">
-        <v>3221.1410000000001</v>
+        <v>436.863</v>
       </c>
       <c r="P16">
-        <v>1867.8979999999999</v>
+        <v>3.0619999999999998</v>
       </c>
       <c r="Q16">
-        <v>15.943</v>
+        <v>-79.92</v>
       </c>
       <c r="R16">
-        <v>41790</v>
+        <v>39325</v>
       </c>
       <c r="S16">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>2027.325</v>
+        <v>801.173</v>
       </c>
       <c r="U16">
-        <v>220.99799999999999</v>
+        <v>132.36600000000001</v>
       </c>
       <c r="V16">
-        <v>221.113</v>
+        <v>22.998000000000001</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-176.02</v>
+        <v>-9.1519999999999992</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>-16.850000000000001</v>
       </c>
       <c r="AA16">
-        <v>55.491999999999997</v>
+        <v>21.731000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41882</v>
+        <v>39416</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>46.517000000000003</v>
+        <v>25.085000000000001</v>
       </c>
       <c r="D17">
-        <v>556.01099999999997</v>
+        <v>197.51499999999999</v>
       </c>
       <c r="E17">
-        <v>365.59100000000001</v>
+        <v>175.542</v>
       </c>
       <c r="F17">
-        <v>338.13099999999997</v>
+        <v>111.8</v>
       </c>
       <c r="G17">
-        <v>811.74699999999996</v>
+        <v>402.24700000000001</v>
       </c>
       <c r="H17">
-        <v>5352.7920000000004</v>
+        <v>1323.807</v>
       </c>
       <c r="I17">
-        <v>47.110999999999997</v>
+        <v>37.549999999999997</v>
       </c>
       <c r="J17">
-        <v>1681.4829999999999</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.0619999999999998</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,78 +2101,78 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1137.3150000000001</v>
+        <v>392.39499999999998</v>
       </c>
       <c r="O17">
-        <v>3241.6219999999998</v>
+        <v>482.68</v>
       </c>
       <c r="P17">
-        <v>1911.877</v>
+        <v>3.0990000000000002</v>
       </c>
       <c r="Q17">
-        <v>40.814999999999998</v>
+        <v>16.117999999999999</v>
       </c>
       <c r="R17">
-        <v>41882</v>
+        <v>39416</v>
       </c>
       <c r="S17">
-        <v>8000</v>
+        <v>3000</v>
       </c>
       <c r="T17">
-        <v>2111.17</v>
+        <v>841.12699999999995</v>
       </c>
       <c r="U17">
-        <v>261.81299999999999</v>
+        <v>148.48400000000001</v>
       </c>
       <c r="V17">
-        <v>167.476</v>
+        <v>52.976999999999997</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>41.198</v>
+        <v>-12.786</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>6.35</v>
       </c>
       <c r="AA17">
-        <v>46.517000000000003</v>
+        <v>25.085000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>41973</v>
+        <v>39507</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>21.431000000000001</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>198.77699999999999</v>
       </c>
       <c r="E18">
-        <v>421.37400000000002</v>
+        <v>192.99299999999999</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>110.71</v>
       </c>
       <c r="G18">
-        <v>688.80700000000002</v>
+        <v>406.25200000000001</v>
       </c>
       <c r="H18">
-        <v>5272.1360000000004</v>
+        <v>1348.5070000000001</v>
       </c>
       <c r="I18">
-        <v>52.244999999999997</v>
+        <v>32.445999999999998</v>
       </c>
       <c r="J18">
-        <v>1806.098</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2097,123 +2181,123 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-3.0990000000000002</v>
       </c>
       <c r="N18">
-        <v>955.05700000000002</v>
+        <v>400.24099999999999</v>
       </c>
       <c r="O18">
-        <v>3112.59</v>
+        <v>485.34199999999998</v>
       </c>
       <c r="P18">
-        <v>1842.355</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-9.3510000000000009</v>
       </c>
       <c r="R18">
-        <v>41973</v>
+        <v>39507</v>
       </c>
       <c r="S18">
-        <v>8800</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>2159.5459999999998</v>
+        <v>863.16499999999996</v>
       </c>
       <c r="U18">
-        <v>153.15600000000001</v>
+        <v>139.13300000000001</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>32.479999999999997</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>-19.564</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>21.431000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42063</v>
+        <v>39599</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>39.520000000000003</v>
+        <v>23.257999999999999</v>
       </c>
       <c r="D19">
-        <v>513.87599999999998</v>
+        <v>207.19300000000001</v>
       </c>
       <c r="E19">
-        <v>439.18</v>
+        <v>169.80099999999999</v>
       </c>
       <c r="F19">
-        <v>313.03500000000003</v>
+        <v>115.099</v>
       </c>
       <c r="G19">
-        <v>849.91</v>
+        <v>357.12</v>
       </c>
       <c r="H19">
-        <v>5565.7</v>
+        <v>1421.6859999999999</v>
       </c>
       <c r="I19">
-        <v>47.762999999999998</v>
+        <v>26.091999999999999</v>
       </c>
       <c r="J19">
-        <v>1956.366</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>28.484999999999999</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-39.271999999999998</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1053.1220000000001</v>
+        <v>431.827</v>
       </c>
       <c r="O19">
-        <v>3422.9490000000001</v>
+        <v>528.00300000000004</v>
       </c>
       <c r="P19">
-        <v>1992.3530000000001</v>
+        <v>28.484999999999999</v>
       </c>
       <c r="Q19">
-        <v>56.563000000000002</v>
+        <v>-33.762</v>
       </c>
       <c r="R19">
-        <v>42063</v>
+        <v>39599</v>
       </c>
       <c r="S19">
-        <v>8800</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>2142.7510000000002</v>
+        <v>893.68299999999999</v>
       </c>
       <c r="U19">
-        <v>209.71899999999999</v>
+        <v>105.371</v>
       </c>
       <c r="V19">
-        <v>188.03800000000001</v>
+        <v>62.493000000000002</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>82.584999999999994</v>
+        <v>8.2590000000000003</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,42 +2306,42 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>39.520000000000003</v>
+        <v>23.257999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42155</v>
+        <v>39691</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>50.951999999999998</v>
+        <v>21.024000000000001</v>
       </c>
       <c r="D20">
-        <v>556.94000000000005</v>
+        <v>207.434</v>
       </c>
       <c r="E20">
-        <v>365.26499999999999</v>
+        <v>146.99199999999999</v>
       </c>
       <c r="F20">
-        <v>341.58499999999998</v>
+        <v>117.175</v>
       </c>
       <c r="G20">
-        <v>795.66899999999998</v>
+        <v>309.15800000000002</v>
       </c>
       <c r="H20">
-        <v>5692.8289999999997</v>
+        <v>1335.723</v>
       </c>
       <c r="I20">
-        <v>52.116</v>
+        <v>19.707999999999998</v>
       </c>
       <c r="J20">
-        <v>2093.0909999999999</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>17.234000000000002</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,37 +2350,37 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>988.58</v>
+        <v>383.23500000000001</v>
       </c>
       <c r="O20">
-        <v>3529.6750000000002</v>
+        <v>480.161</v>
       </c>
       <c r="P20">
-        <v>2150.692</v>
+        <v>17.234000000000002</v>
       </c>
       <c r="Q20">
-        <v>16.16</v>
+        <v>-17.891999999999999</v>
       </c>
       <c r="R20">
-        <v>42155</v>
+        <v>39691</v>
       </c>
       <c r="S20">
-        <v>8800</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>2163.154</v>
+        <v>855.56200000000001</v>
       </c>
       <c r="U20">
-        <v>225.87899999999999</v>
+        <v>87.478999999999999</v>
       </c>
       <c r="V20">
-        <v>146.24600000000001</v>
+        <v>43.127000000000002</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>104.098</v>
+        <v>-47.170999999999999</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -2305,42 +2389,42 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>50.951999999999998</v>
+        <v>21.024000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42247</v>
+        <v>39782</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>33.28</v>
       </c>
       <c r="D21">
-        <v>557.9</v>
+        <v>230.626</v>
       </c>
       <c r="E21">
-        <v>330.673</v>
+        <v>207.815</v>
       </c>
       <c r="F21">
-        <v>348.1</v>
+        <v>132.01900000000001</v>
       </c>
       <c r="G21">
-        <v>790.24800000000005</v>
+        <v>317.81700000000001</v>
       </c>
       <c r="H21">
-        <v>5649.5990000000002</v>
+        <v>1436.18</v>
       </c>
       <c r="I21">
-        <v>57.713000000000001</v>
+        <v>35.084000000000003</v>
       </c>
       <c r="J21">
-        <v>2071.6990000000001</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>96.02</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2433,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>962.67</v>
+        <v>545.92600000000004</v>
       </c>
       <c r="O21">
-        <v>3458.6170000000002</v>
+        <v>635.125</v>
       </c>
       <c r="P21">
-        <v>2107.7130000000002</v>
+        <v>96.02</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-56.439</v>
       </c>
       <c r="R21">
-        <v>42247</v>
+        <v>39782</v>
       </c>
       <c r="S21">
-        <v>8800</v>
+        <v>3800</v>
       </c>
       <c r="T21">
-        <v>2190.982</v>
+        <v>801.05499999999995</v>
       </c>
       <c r="U21">
-        <v>263.60500000000002</v>
+        <v>31.04</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>51.149000000000001</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>54.966999999999999</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,81 +2472,81 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>59.1</v>
+        <v>33.28</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42338</v>
+        <v>39872</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>90.6</v>
+        <v>27.103999999999999</v>
       </c>
       <c r="D22">
-        <v>555.70000000000005</v>
+        <v>235.411</v>
       </c>
       <c r="E22">
-        <v>355.9</v>
+        <v>222.309</v>
       </c>
       <c r="F22">
-        <v>357.8</v>
+        <v>133.38300000000001</v>
       </c>
       <c r="G22">
-        <v>950.5</v>
+        <v>384.96300000000002</v>
       </c>
       <c r="H22">
-        <v>5577.5</v>
+        <v>1486.1089999999999</v>
       </c>
       <c r="I22">
-        <v>59.2</v>
+        <v>31.273</v>
       </c>
       <c r="J22">
-        <v>2095.8000000000002</v>
+        <v>108</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>6.226</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-51.265000000000001</v>
       </c>
       <c r="N22">
-        <v>960.3</v>
+        <v>468.976</v>
       </c>
       <c r="O22">
-        <v>3376.6</v>
+        <v>658.08100000000002</v>
       </c>
       <c r="P22">
-        <v>2131.8000000000002</v>
+        <v>114.226</v>
       </c>
       <c r="Q22">
-        <v>29.5</v>
+        <v>48.86</v>
       </c>
       <c r="R22">
-        <v>42338</v>
+        <v>39872</v>
       </c>
       <c r="S22">
-        <v>8600</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>2200.9</v>
+        <v>828.02800000000002</v>
       </c>
       <c r="U22">
-        <v>291.60000000000002</v>
+        <v>79.900000000000006</v>
       </c>
       <c r="V22">
-        <v>116</v>
+        <v>38.615000000000002</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-54.6</v>
+        <v>15.178000000000001</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,81 +2555,81 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>90.6</v>
+        <v>27.103999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42429</v>
+        <v>39964</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>45.2</v>
+        <v>31.954000000000001</v>
       </c>
       <c r="D23">
-        <v>548.5</v>
+        <v>235.27600000000001</v>
       </c>
       <c r="E23">
-        <v>408.84399999999999</v>
+        <v>187.40899999999999</v>
       </c>
       <c r="F23">
-        <v>337.4</v>
+        <v>138.10499999999999</v>
       </c>
       <c r="G23">
-        <v>805.77800000000002</v>
+        <v>445.76600000000002</v>
       </c>
       <c r="H23">
-        <v>6562.4380000000001</v>
+        <v>1587.8779999999999</v>
       </c>
       <c r="I23">
-        <v>50.244</v>
+        <v>23.02</v>
       </c>
       <c r="J23">
-        <v>2410.0430000000001</v>
+        <v>108</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>7.1369999999999996</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-194</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1595.412</v>
+        <v>462.50700000000001</v>
       </c>
       <c r="O23">
-        <v>4423.2809999999999</v>
+        <v>662.99699999999996</v>
       </c>
       <c r="P23">
-        <v>2998.201</v>
+        <v>115.137</v>
       </c>
       <c r="Q23">
-        <v>-231.9</v>
+        <v>92.448999999999998</v>
       </c>
       <c r="R23">
-        <v>42429</v>
+        <v>39964</v>
       </c>
       <c r="S23">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>2139.1570000000002</v>
+        <v>924.88099999999997</v>
       </c>
       <c r="U23">
-        <v>60.499000000000002</v>
+        <v>172.34899999999999</v>
       </c>
       <c r="V23">
-        <v>151.80000000000001</v>
+        <v>77.664000000000001</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>747.3</v>
+        <v>4.3120000000000003</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -2554,42 +2638,42 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>45.2</v>
+        <v>31.954000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42521</v>
+        <v>40056</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>34.706000000000003</v>
       </c>
       <c r="D24">
-        <v>587.9</v>
+        <v>239.48500000000001</v>
       </c>
       <c r="E24">
-        <v>378.02600000000001</v>
+        <v>167.19</v>
       </c>
       <c r="F24">
-        <v>375.1</v>
+        <v>138.45699999999999</v>
       </c>
       <c r="G24">
-        <v>863.35900000000004</v>
+        <v>365.54500000000002</v>
       </c>
       <c r="H24">
-        <v>6616.192</v>
+        <v>1572.2059999999999</v>
       </c>
       <c r="I24">
-        <v>45.399000000000001</v>
+        <v>20.001999999999999</v>
       </c>
       <c r="J24">
-        <v>2487.5239999999999</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>77.274000000000001</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2682,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1450.08</v>
+        <v>498.39699999999999</v>
       </c>
       <c r="O24">
-        <v>4360.25</v>
+        <v>600.25099999999998</v>
       </c>
       <c r="P24">
-        <v>2961.32</v>
+        <v>77.274000000000001</v>
       </c>
       <c r="Q24">
-        <v>284.3</v>
+        <v>-53.878</v>
       </c>
       <c r="R24">
-        <v>42521</v>
+        <v>40056</v>
       </c>
       <c r="S24">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>2255.942</v>
+        <v>971.95500000000004</v>
       </c>
       <c r="U24">
-        <v>345.54</v>
+        <v>118.471</v>
       </c>
       <c r="V24">
-        <v>176.7</v>
+        <v>56.42</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-38.6</v>
+        <v>-36.438000000000002</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,42 +2721,42 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>50</v>
+        <v>34.706000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42613</v>
+        <v>40147</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>-31.7</v>
+        <v>41.198999999999998</v>
       </c>
       <c r="D25">
-        <v>724.6</v>
+        <v>257.12799999999999</v>
       </c>
       <c r="E25">
-        <v>514.70000000000005</v>
+        <v>203.5</v>
       </c>
       <c r="F25">
-        <v>454.9</v>
+        <v>150.09299999999999</v>
       </c>
       <c r="G25">
-        <v>929.5</v>
+        <v>413.23399999999998</v>
       </c>
       <c r="H25">
-        <v>14328.4</v>
+        <v>1675.588</v>
       </c>
       <c r="I25">
-        <v>57.4</v>
+        <v>26.47</v>
       </c>
       <c r="J25">
-        <v>3140</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>92.576999999999998</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,37 +2765,37 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1414.6</v>
+        <v>549.17700000000002</v>
       </c>
       <c r="O25">
-        <v>5818.1</v>
+        <v>661.91</v>
       </c>
       <c r="P25">
-        <v>3266</v>
+        <v>92.718000000000004</v>
       </c>
       <c r="Q25">
-        <v>-144.80000000000001</v>
+        <v>5.73</v>
       </c>
       <c r="R25">
-        <v>42613</v>
+        <v>40147</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="T25">
-        <v>8510.2999999999993</v>
+        <v>1013.678</v>
       </c>
       <c r="U25">
-        <v>200.7</v>
+        <v>124.20099999999999</v>
       </c>
       <c r="V25">
-        <v>146.6</v>
+        <v>61.994999999999997</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-379</v>
+        <v>17.355</v>
       </c>
       <c r="Y25">
         <v>0</v>
@@ -2720,81 +2804,81 @@
         <v>0</v>
       </c>
       <c r="AA25">
-        <v>-31.7</v>
+        <v>41.198999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42704</v>
+        <v>40237</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>89.3</v>
+        <v>26.823</v>
       </c>
       <c r="D26">
-        <v>873.8</v>
+        <v>240.73500000000001</v>
       </c>
       <c r="E26">
-        <v>635.6</v>
+        <v>236.535</v>
       </c>
       <c r="F26">
-        <v>519.5</v>
+        <v>134.33500000000001</v>
       </c>
       <c r="G26">
-        <v>933.5</v>
+        <v>476.02699999999999</v>
       </c>
       <c r="H26">
-        <v>13936.6</v>
+        <v>1725.3230000000001</v>
       </c>
       <c r="I26">
-        <v>58.9</v>
+        <v>29.059000000000001</v>
       </c>
       <c r="J26">
-        <v>3279.3</v>
+        <v>0.11700000000000001</v>
       </c>
       <c r="K26">
-        <v>104.6</v>
+        <v>109.01900000000001</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-3.2240000000000002</v>
       </c>
       <c r="N26">
-        <v>1412.4</v>
+        <v>596.72</v>
       </c>
       <c r="O26">
-        <v>5794.5</v>
+        <v>708.21600000000001</v>
       </c>
       <c r="P26">
-        <v>3383.9</v>
+        <v>109.136</v>
       </c>
       <c r="Q26">
-        <v>-61.8</v>
+        <v>25.241</v>
       </c>
       <c r="R26">
-        <v>42704</v>
+        <v>40237</v>
       </c>
       <c r="S26">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>8142.1</v>
+        <v>1017.107</v>
       </c>
       <c r="U26">
-        <v>138.9</v>
+        <v>149.44200000000001</v>
       </c>
       <c r="V26">
-        <v>163.19999999999999</v>
+        <v>55.411999999999999</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-152.19999999999999</v>
+        <v>3.2850000000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,81 +2887,81 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>89.3</v>
+        <v>26.823</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42794</v>
+        <v>40329</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>66</v>
+        <v>38.478000000000002</v>
       </c>
       <c r="D27">
-        <v>844.2</v>
+        <v>265.22300000000001</v>
       </c>
       <c r="E27">
-        <v>668.8</v>
+        <v>178.39</v>
       </c>
       <c r="F27">
-        <v>516.79999999999995</v>
+        <v>151.90299999999999</v>
       </c>
       <c r="G27">
-        <v>1044.5999999999999</v>
+        <v>473.27300000000002</v>
       </c>
       <c r="H27">
-        <v>14005.7</v>
+        <v>1776.665</v>
       </c>
       <c r="I27">
-        <v>52.5</v>
+        <v>26.061</v>
       </c>
       <c r="J27">
-        <v>3145.8</v>
+        <v>0.153</v>
       </c>
       <c r="K27">
-        <v>582.9</v>
+        <v>123.804</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-1057.5</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>1967.4</v>
+        <v>607.51800000000003</v>
       </c>
       <c r="O27">
-        <v>6255.8</v>
+        <v>725.78099999999995</v>
       </c>
       <c r="P27">
-        <v>3728.7</v>
+        <v>123.95699999999999</v>
       </c>
       <c r="Q27">
-        <v>15.9</v>
+        <v>53.38</v>
       </c>
       <c r="R27">
-        <v>42794</v>
+        <v>40329</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>7749.9</v>
+        <v>1050.884</v>
       </c>
       <c r="U27">
-        <v>154.80000000000001</v>
+        <v>202.822</v>
       </c>
       <c r="V27">
-        <v>250.7</v>
+        <v>123.744</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>-166.6</v>
+        <v>10.872999999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
@@ -2886,42 +2970,42 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>66</v>
+        <v>38.478000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42886</v>
+        <v>40421</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>99.3</v>
+        <v>34.558999999999997</v>
       </c>
       <c r="D28">
-        <v>906.1</v>
+        <v>271.61200000000002</v>
       </c>
       <c r="E28">
-        <v>669.7</v>
+        <v>189.45500000000001</v>
       </c>
       <c r="F28">
-        <v>568.4</v>
+        <v>155.03899999999999</v>
       </c>
       <c r="G28">
-        <v>1024.2</v>
+        <v>533.27800000000002</v>
       </c>
       <c r="H28">
-        <v>14071.2</v>
+        <v>1846.086</v>
       </c>
       <c r="I28">
-        <v>60</v>
+        <v>29.146999999999998</v>
       </c>
       <c r="J28">
-        <v>3438.5</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="K28">
-        <v>561.20000000000005</v>
+        <v>143.88800000000001</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,37 +3014,37 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>1859.6</v>
+        <v>618.404</v>
       </c>
       <c r="O28">
-        <v>6404.3</v>
+        <v>736.72699999999998</v>
       </c>
       <c r="P28">
-        <v>3999.7</v>
+        <v>143.983</v>
       </c>
       <c r="Q28">
-        <v>7.7</v>
+        <v>54.329000000000001</v>
       </c>
       <c r="R28">
-        <v>42886</v>
+        <v>40421</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="T28">
-        <v>7666.9</v>
+        <v>1109.3589999999999</v>
       </c>
       <c r="U28">
-        <v>162.5</v>
+        <v>257.15100000000001</v>
       </c>
       <c r="V28">
-        <v>200.6</v>
+        <v>42.158999999999999</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-126.6</v>
+        <v>17.728999999999999</v>
       </c>
       <c r="Y28">
         <v>0</v>
@@ -2969,42 +3053,42 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>99.3</v>
+        <v>34.558999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>42978</v>
+        <v>40512</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>145.9</v>
+        <v>37.880000000000003</v>
       </c>
       <c r="D29">
-        <v>904.7</v>
+        <v>280.17200000000003</v>
       </c>
       <c r="E29">
-        <v>655.5</v>
+        <v>256.55200000000002</v>
       </c>
       <c r="F29">
-        <v>560</v>
+        <v>158.90700000000001</v>
       </c>
       <c r="G29">
-        <v>972.1</v>
+        <v>552.73400000000004</v>
       </c>
       <c r="H29">
-        <v>14016.9</v>
+        <v>2155.7020000000002</v>
       </c>
       <c r="I29">
-        <v>49.9</v>
+        <v>35.853999999999999</v>
       </c>
       <c r="J29">
-        <v>3439.4</v>
+        <v>275.09500000000003</v>
       </c>
       <c r="K29">
-        <v>561.1</v>
+        <v>19.053999999999998</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,37 +3097,37 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>1840.7</v>
+        <v>578.26800000000003</v>
       </c>
       <c r="O29">
-        <v>6245.2</v>
+        <v>979.62099999999998</v>
       </c>
       <c r="P29">
-        <v>4000.5</v>
+        <v>294.149</v>
       </c>
       <c r="Q29">
-        <v>-8.6999999999999993</v>
+        <v>-56.415999999999997</v>
       </c>
       <c r="R29">
-        <v>42978</v>
+        <v>40512</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="T29">
-        <v>7771.7</v>
+        <v>1176.0809999999999</v>
       </c>
       <c r="U29">
-        <v>153.80000000000001</v>
+        <v>200.73500000000001</v>
       </c>
       <c r="V29">
-        <v>267.3</v>
+        <v>44.872999999999998</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-208.1</v>
+        <v>149.715</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3052,164 +3136,164 @@
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>145.9</v>
+        <v>37.880000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43069</v>
+        <v>40602</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>105.7</v>
+        <v>31.937000000000001</v>
       </c>
       <c r="D30">
-        <v>944.7</v>
+        <v>293.14299999999997</v>
       </c>
       <c r="E30">
-        <v>693.5</v>
+        <v>288.15499999999997</v>
       </c>
       <c r="F30">
-        <v>599.6</v>
+        <v>165.70400000000001</v>
       </c>
       <c r="G30">
-        <v>1015</v>
+        <v>655.21799999999996</v>
       </c>
       <c r="H30">
-        <v>14554.4</v>
+        <v>2282.3389999999999</v>
       </c>
       <c r="I30">
-        <v>53.4</v>
+        <v>41.22</v>
       </c>
       <c r="J30">
-        <v>3613.1</v>
+        <v>281.303</v>
       </c>
       <c r="K30">
-        <v>576</v>
+        <v>17.114999999999998</v>
       </c>
       <c r="L30">
         <v>0</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>-315.83199999999999</v>
       </c>
       <c r="N30">
-        <v>1906.1</v>
+        <v>634.60799999999995</v>
       </c>
       <c r="O30">
-        <v>6530.9</v>
+        <v>1044.366</v>
       </c>
       <c r="P30">
-        <v>4193.3</v>
+        <v>298.41800000000001</v>
       </c>
       <c r="Q30">
-        <v>-20</v>
+        <v>50.942</v>
       </c>
       <c r="R30">
-        <v>43069</v>
+        <v>40602</v>
       </c>
       <c r="S30">
-        <v>13000</v>
+        <v>4400</v>
       </c>
       <c r="T30">
-        <v>8023.5</v>
+        <v>1237.973</v>
       </c>
       <c r="U30">
-        <v>133.80000000000001</v>
+        <v>251.67699999999999</v>
       </c>
       <c r="V30">
-        <v>242.9</v>
+        <v>79.268000000000001</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>172</v>
+        <v>-14.209</v>
       </c>
       <c r="Y30">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>105.7</v>
+        <v>31.937000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43159</v>
+        <v>40694</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>241.3</v>
+        <v>39.941000000000003</v>
       </c>
       <c r="D31">
-        <v>932.1</v>
+        <v>323.12099999999998</v>
       </c>
       <c r="E31">
-        <v>802.7</v>
+        <v>244.239</v>
       </c>
       <c r="F31">
-        <v>589.20000000000005</v>
+        <v>181.14099999999999</v>
       </c>
       <c r="G31">
-        <v>1165.8</v>
+        <v>508.827</v>
       </c>
       <c r="H31">
-        <v>14696.7</v>
+        <v>2378.8429999999998</v>
       </c>
       <c r="I31">
-        <v>50.1</v>
+        <v>40.43</v>
       </c>
       <c r="J31">
-        <v>4189</v>
+        <v>277.553</v>
       </c>
       <c r="K31">
-        <v>90.9</v>
+        <v>17.12</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-657</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>1480.4</v>
+        <v>656.51199999999994</v>
       </c>
       <c r="O31">
-        <v>6526</v>
+        <v>1077.318</v>
       </c>
       <c r="P31">
-        <v>4279.8999999999996</v>
+        <v>295.673</v>
       </c>
       <c r="Q31">
-        <v>22.2</v>
+        <v>-104.563</v>
       </c>
       <c r="R31">
-        <v>43159</v>
+        <v>40694</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="T31">
-        <v>8170.7</v>
+        <v>1301.5250000000001</v>
       </c>
       <c r="U31">
-        <v>156</v>
+        <v>147.114</v>
       </c>
       <c r="V31">
-        <v>202.9</v>
+        <v>121.71299999999999</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-118.9</v>
+        <v>-3.4119999999999999</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,42 +3302,42 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>241.3</v>
+        <v>39.941000000000003</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43251</v>
+        <v>40786</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>114.7</v>
+        <v>40.808999999999997</v>
       </c>
       <c r="D32">
-        <v>1008.3</v>
+        <v>338.71800000000002</v>
       </c>
       <c r="E32">
-        <v>704.2</v>
+        <v>248.864</v>
       </c>
       <c r="F32">
-        <v>639.9</v>
+        <v>193.929</v>
       </c>
       <c r="G32">
-        <v>2207.1</v>
+        <v>570.85500000000002</v>
       </c>
       <c r="H32">
-        <v>14465.8</v>
+        <v>2980.0819999999999</v>
       </c>
       <c r="I32">
-        <v>42.1</v>
+        <v>30.541</v>
       </c>
       <c r="J32">
-        <v>4355.5</v>
+        <v>527.50300000000004</v>
       </c>
       <c r="K32">
-        <v>105.8</v>
+        <v>287.07799999999997</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,37 +3346,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1561.7</v>
+        <v>904.221</v>
       </c>
       <c r="O32">
-        <v>6689.2</v>
+        <v>1626.325</v>
       </c>
       <c r="P32">
-        <v>4461.3</v>
+        <v>814.58100000000002</v>
       </c>
       <c r="Q32">
-        <v>3</v>
+        <v>55.758000000000003</v>
       </c>
       <c r="R32">
-        <v>43251</v>
+        <v>40786</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="T32">
-        <v>7776.6</v>
+        <v>1353.7570000000001</v>
       </c>
       <c r="U32">
-        <v>159</v>
+        <v>202.87200000000001</v>
       </c>
       <c r="V32">
-        <v>382.7</v>
+        <v>52.261000000000003</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-275.39999999999998</v>
+        <v>511.221</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,42 +3385,42 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>114.7</v>
+        <v>40.808999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43343</v>
+        <v>40877</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>104.5</v>
+        <v>22.728000000000002</v>
       </c>
       <c r="D33">
-        <v>1001</v>
+        <v>370.65600000000001</v>
       </c>
       <c r="E33">
-        <v>760.6</v>
+        <v>326.00900000000001</v>
       </c>
       <c r="F33">
-        <v>625.70000000000005</v>
+        <v>181.43700000000001</v>
       </c>
       <c r="G33">
-        <v>1114.0999999999999</v>
+        <v>698.07799999999997</v>
       </c>
       <c r="H33">
-        <v>16206.3</v>
+        <v>3073.0369999999998</v>
       </c>
       <c r="I33">
-        <v>39.6</v>
+        <v>32.427999999999997</v>
       </c>
       <c r="J33">
-        <v>4894.3999999999996</v>
+        <v>658.91099999999994</v>
       </c>
       <c r="K33">
-        <v>1166.3</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,37 +3429,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>2563.4</v>
+        <v>816.85699999999997</v>
       </c>
       <c r="O33">
-        <v>8307.7999999999993</v>
+        <v>1688.308</v>
       </c>
       <c r="P33">
-        <v>6060.7</v>
+        <v>803.47400000000005</v>
       </c>
       <c r="Q33">
-        <v>-4.5999999999999996</v>
+        <v>31.812999999999999</v>
       </c>
       <c r="R33">
-        <v>43343</v>
+        <v>40877</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="T33">
-        <v>7898.5</v>
+        <v>1384.729</v>
       </c>
       <c r="U33">
-        <v>154.4</v>
+        <v>234.685</v>
       </c>
       <c r="V33">
-        <v>346.4</v>
+        <v>88.808000000000007</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>1595.3</v>
+        <v>-10.782999999999999</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,208 +3468,208 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>104.5</v>
+        <v>22.728000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43434</v>
+        <v>40968</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>81.8</v>
+        <v>23.475000000000001</v>
       </c>
       <c r="D34">
-        <v>1067.8</v>
+        <v>342.74299999999999</v>
       </c>
       <c r="E34">
-        <v>792.9</v>
+        <v>354.25900000000001</v>
       </c>
       <c r="F34">
-        <v>658.7</v>
+        <v>194.15299999999999</v>
       </c>
       <c r="G34">
-        <v>1099.4000000000001</v>
+        <v>807.17600000000004</v>
       </c>
       <c r="H34">
-        <v>16062.3</v>
+        <v>3193.277</v>
       </c>
       <c r="I34">
-        <v>42.2</v>
+        <v>33.915999999999997</v>
       </c>
       <c r="J34">
-        <v>4881.8999999999996</v>
+        <v>729.31100000000004</v>
       </c>
       <c r="K34">
-        <v>789.9</v>
+        <v>142.94499999999999</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>-20.446999999999999</v>
       </c>
       <c r="N34">
-        <v>2320.3000000000002</v>
+        <v>879.57899999999995</v>
       </c>
       <c r="O34">
-        <v>8035.9</v>
+        <v>1764.5719999999999</v>
       </c>
       <c r="P34">
-        <v>5679.1</v>
+        <v>872.25599999999997</v>
       </c>
       <c r="Q34">
-        <v>-34.4</v>
+        <v>61.901000000000003</v>
       </c>
       <c r="R34">
-        <v>43434</v>
+        <v>40968</v>
       </c>
       <c r="S34">
-        <v>14900</v>
+        <v>5500</v>
       </c>
       <c r="T34">
-        <v>8026.4</v>
+        <v>1428.7049999999999</v>
       </c>
       <c r="U34">
-        <v>120</v>
+        <v>296.58600000000001</v>
       </c>
       <c r="V34">
-        <v>357.5</v>
+        <v>32.982999999999997</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-328</v>
+        <v>46.051000000000002</v>
       </c>
       <c r="Y34">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>81.8</v>
+        <v>23.475000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43524</v>
+        <v>41060</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>109.7</v>
+        <v>44.191000000000003</v>
       </c>
       <c r="D35">
-        <v>1046.4000000000001</v>
+        <v>387.15899999999999</v>
       </c>
       <c r="E35">
-        <v>980.4</v>
+        <v>289.05500000000001</v>
       </c>
       <c r="F35">
-        <v>646.6</v>
+        <v>219.89099999999999</v>
       </c>
       <c r="G35">
-        <v>1326.2</v>
+        <v>707.93799999999999</v>
       </c>
       <c r="H35">
-        <v>16383.4</v>
+        <v>3198.6190000000001</v>
       </c>
       <c r="I35">
-        <v>56.4</v>
+        <v>38.648000000000003</v>
       </c>
       <c r="J35">
-        <v>5104.3999999999996</v>
+        <v>677.26499999999999</v>
       </c>
       <c r="K35">
-        <v>484.9</v>
+        <v>170.196</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-392.9</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>2087.1999999999998</v>
+        <v>882.46799999999996</v>
       </c>
       <c r="O35">
-        <v>8033.4</v>
+        <v>1719.0709999999999</v>
       </c>
       <c r="P35">
-        <v>5596.3</v>
+        <v>847.46100000000001</v>
       </c>
       <c r="Q35">
-        <v>13.2</v>
+        <v>-28.370999999999999</v>
       </c>
       <c r="R35">
-        <v>43524</v>
+        <v>41060</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="T35">
-        <v>8350</v>
+        <v>1479.548</v>
       </c>
       <c r="U35">
-        <v>133.19999999999999</v>
+        <v>268.21499999999997</v>
       </c>
       <c r="V35">
-        <v>188</v>
+        <v>145.191</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-111.9</v>
+        <v>-25.056999999999999</v>
       </c>
       <c r="Y35">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-5.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>109.7</v>
+        <v>44.191000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43616</v>
+        <v>41152</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>149.80000000000001</v>
+        <v>44.082000000000001</v>
       </c>
       <c r="D36">
-        <v>1135.5</v>
+        <v>385.60899999999998</v>
       </c>
       <c r="E36">
-        <v>854</v>
+        <v>289.548</v>
       </c>
       <c r="F36">
-        <v>707.5</v>
+        <v>229.86199999999999</v>
       </c>
       <c r="G36">
-        <v>1261.2</v>
+        <v>734.09199999999998</v>
       </c>
       <c r="H36">
-        <v>16033.3</v>
+        <v>3448.172</v>
       </c>
       <c r="I36">
-        <v>33.6</v>
+        <v>36.795000000000002</v>
       </c>
       <c r="J36">
-        <v>4886.1000000000004</v>
+        <v>841.303</v>
       </c>
       <c r="K36">
-        <v>364.3</v>
+        <v>124.208</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3678,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1919.7</v>
+        <v>854.57</v>
       </c>
       <c r="O36">
-        <v>7630.1</v>
+        <v>1879.5329999999999</v>
       </c>
       <c r="P36">
-        <v>5257.8</v>
+        <v>1011.511</v>
       </c>
       <c r="Q36">
-        <v>-23.7</v>
+        <v>30.218</v>
       </c>
       <c r="R36">
-        <v>43616</v>
+        <v>41152</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="T36">
-        <v>8403.2000000000007</v>
+        <v>1568.6389999999999</v>
       </c>
       <c r="U36">
-        <v>109.5</v>
+        <v>298.43299999999999</v>
       </c>
       <c r="V36">
-        <v>424.7</v>
+        <v>68.081999999999994</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-315.5</v>
+        <v>162.62899999999999</v>
       </c>
       <c r="Y36">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>149.80000000000001</v>
+        <v>44.082000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43708</v>
+        <v>41243</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>40.1</v>
+        <v>46.42</v>
       </c>
       <c r="D37">
-        <v>1112.3</v>
+        <v>414.358</v>
       </c>
       <c r="E37">
-        <v>862.7</v>
+        <v>372.11700000000002</v>
       </c>
       <c r="F37">
-        <v>692.6</v>
+        <v>236.53200000000001</v>
       </c>
       <c r="G37">
-        <v>1189</v>
+        <v>863.88300000000004</v>
       </c>
       <c r="H37">
-        <v>15903.6</v>
+        <v>3549.2109999999998</v>
       </c>
       <c r="I37">
-        <v>27.2</v>
+        <v>52.079000000000001</v>
       </c>
       <c r="J37">
-        <v>5044.2</v>
+        <v>890.92200000000003</v>
       </c>
       <c r="K37">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,247 +3761,247 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1663.3</v>
+        <v>876.93700000000001</v>
       </c>
       <c r="O37">
-        <v>7652.7</v>
+        <v>1964.8530000000001</v>
       </c>
       <c r="P37">
-        <v>5052.3999999999996</v>
+        <v>1064.6110000000001</v>
       </c>
       <c r="Q37">
-        <v>14.6</v>
+        <v>46.575000000000003</v>
       </c>
       <c r="R37">
-        <v>43708</v>
+        <v>41243</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="T37">
-        <v>8250.9</v>
+        <v>1584.3579999999999</v>
       </c>
       <c r="U37">
-        <v>124.1</v>
+        <v>345.00799999999998</v>
       </c>
       <c r="V37">
-        <v>412.9</v>
+        <v>68.117000000000004</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-334.5</v>
+        <v>-4.2119999999999997</v>
       </c>
       <c r="Y37">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>40.1</v>
+        <v>46.42</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43799</v>
+        <v>41333</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>203.1</v>
+        <v>24.670999999999999</v>
       </c>
       <c r="D38">
-        <v>1120.4000000000001</v>
+        <v>382.52499999999998</v>
       </c>
       <c r="E38">
-        <v>890.7</v>
+        <v>412.97399999999999</v>
       </c>
       <c r="F38">
-        <v>710.9</v>
+        <v>220.21</v>
       </c>
       <c r="G38">
-        <v>1307.8</v>
+        <v>876.072</v>
       </c>
       <c r="H38">
-        <v>16087.2</v>
+        <v>3567.9490000000001</v>
       </c>
       <c r="I38">
-        <v>59.7</v>
+        <v>53.167000000000002</v>
       </c>
       <c r="J38">
-        <v>4867.8</v>
+        <v>886.02300000000002</v>
       </c>
       <c r="K38">
-        <v>251.1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-53.786000000000001</v>
       </c>
       <c r="N38">
-        <v>1969.2</v>
+        <v>978.45699999999999</v>
       </c>
       <c r="O38">
-        <v>7656.3</v>
+        <v>2029.0419999999999</v>
       </c>
       <c r="P38">
-        <v>5125.5</v>
+        <v>1055.5340000000001</v>
       </c>
       <c r="Q38">
-        <v>-12.6</v>
+        <v>-26.311</v>
       </c>
       <c r="R38">
-        <v>43799</v>
+        <v>41333</v>
       </c>
       <c r="S38">
-        <v>15500</v>
+        <v>6000</v>
       </c>
       <c r="T38">
-        <v>8430.9</v>
+        <v>1538.9069999999999</v>
       </c>
       <c r="U38">
-        <v>111.5</v>
+        <v>318.697</v>
       </c>
       <c r="V38">
-        <v>225.7</v>
+        <v>131.68600000000001</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-196.1</v>
+        <v>-79.340999999999994</v>
       </c>
       <c r="Y38">
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>203.1</v>
+        <v>24.670999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43890</v>
+        <v>41425</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>485</v>
+        <v>42.89</v>
       </c>
       <c r="D39">
-        <v>1080.8</v>
+        <v>418.14299999999997</v>
       </c>
       <c r="E39">
-        <v>979.7</v>
+        <v>350.08800000000002</v>
       </c>
       <c r="F39">
-        <v>665</v>
+        <v>243.477</v>
       </c>
       <c r="G39">
-        <v>1338.3</v>
+        <v>757.15</v>
       </c>
       <c r="H39">
-        <v>16380.1</v>
+        <v>3572.9409999999998</v>
       </c>
       <c r="I39">
-        <v>32.6</v>
+        <v>51.767000000000003</v>
       </c>
       <c r="J39">
-        <v>4955</v>
+        <v>842.33799999999997</v>
       </c>
       <c r="K39">
-        <v>251.1</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-209.1</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>1922.5</v>
+        <v>946.04200000000003</v>
       </c>
       <c r="O39">
-        <v>7997</v>
+        <v>1960.0809999999999</v>
       </c>
       <c r="P39">
-        <v>5607.6</v>
+        <v>1011.819</v>
       </c>
       <c r="Q39">
-        <v>32.4</v>
+        <v>-51.566000000000003</v>
       </c>
       <c r="R39">
-        <v>43890</v>
+        <v>41425</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>6700</v>
       </c>
       <c r="T39">
-        <v>8383.1</v>
+        <v>1612.86</v>
       </c>
       <c r="U39">
-        <v>143.9</v>
+        <v>267.13099999999997</v>
       </c>
       <c r="V39">
-        <v>119.5</v>
+        <v>129.47999999999999</v>
       </c>
       <c r="W39">
-        <v>-67.7</v>
+        <v>0</v>
       </c>
       <c r="X39">
-        <v>-462.1</v>
+        <v>-43.938000000000002</v>
       </c>
       <c r="Y39">
-        <v>342.2</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>-3.6</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>485</v>
+        <v>42.89</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>43982</v>
+        <v>41517</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>71.7</v>
+        <v>23.361999999999998</v>
       </c>
       <c r="D40">
-        <v>1026.5999999999999</v>
+        <v>480.28800000000001</v>
       </c>
       <c r="E40">
-        <v>876.1</v>
+        <v>395.584</v>
       </c>
       <c r="F40">
-        <v>638.29999999999995</v>
+        <v>279.767</v>
       </c>
       <c r="G40">
-        <v>1302.4000000000001</v>
+        <v>828.21400000000006</v>
       </c>
       <c r="H40">
-        <v>16128.9</v>
+        <v>5322.3680000000004</v>
       </c>
       <c r="I40">
-        <v>20.5</v>
+        <v>56.194000000000003</v>
       </c>
       <c r="J40">
-        <v>5130.5</v>
+        <v>1915.5239999999999</v>
       </c>
       <c r="K40">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4010,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1791.2</v>
+        <v>1178.2090000000001</v>
       </c>
       <c r="O40">
-        <v>8007.3</v>
+        <v>3519.9949999999999</v>
       </c>
       <c r="P40">
-        <v>5777.2</v>
+        <v>2309.7719999999999</v>
       </c>
       <c r="Q40">
-        <v>63.9</v>
+        <v>3.8639999999999999</v>
       </c>
       <c r="R40">
-        <v>43982</v>
+        <v>41517</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="T40">
-        <v>8121.6</v>
+        <v>1802.373</v>
       </c>
       <c r="U40">
-        <v>207.8</v>
+        <v>270.995</v>
       </c>
       <c r="V40">
-        <v>278.2</v>
+        <v>83.203000000000003</v>
       </c>
       <c r="W40">
-        <v>-67.599999999999994</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>-100.2</v>
+        <v>1277.713</v>
       </c>
       <c r="Y40">
-        <v>330.3</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>-3.6</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>71.7</v>
+        <v>23.361999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44074</v>
+        <v>41608</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>162.9</v>
+        <v>40.81</v>
       </c>
       <c r="D41">
-        <v>1073.2</v>
+        <v>559.67499999999995</v>
       </c>
       <c r="E41">
-        <v>859.7</v>
+        <v>459.26299999999998</v>
       </c>
       <c r="F41">
-        <v>687.6</v>
+        <v>337.37400000000002</v>
       </c>
       <c r="G41">
-        <v>1226</v>
+        <v>880.84</v>
       </c>
       <c r="H41">
-        <v>16233.6</v>
+        <v>5359.6130000000003</v>
       </c>
       <c r="I41">
-        <v>22.8</v>
+        <v>57.000999999999998</v>
       </c>
       <c r="J41">
-        <v>4701.8</v>
+        <v>1779.0650000000001</v>
       </c>
       <c r="K41">
-        <v>251.1</v>
+        <v>0</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,129 +4093,2453 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1838.3</v>
+        <v>1246.4349999999999</v>
       </c>
       <c r="O41">
-        <v>7626.7</v>
+        <v>3452.65</v>
       </c>
       <c r="P41">
-        <v>5336.3</v>
+        <v>2174.5920000000001</v>
       </c>
       <c r="Q41">
-        <v>-51</v>
+        <v>-12.628</v>
       </c>
       <c r="R41">
-        <v>44074</v>
+        <v>41608</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="T41">
-        <v>8606.9</v>
+        <v>1906.963</v>
       </c>
       <c r="U41">
-        <v>156.80000000000001</v>
+        <v>258.36700000000002</v>
       </c>
       <c r="V41">
-        <v>402.8</v>
+        <v>151.786</v>
       </c>
       <c r="W41">
-        <v>-67.7</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-464.7</v>
+        <v>-147.98400000000001</v>
       </c>
       <c r="Y41">
-        <v>316.3</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>162.9</v>
+        <v>40.81</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44165</v>
+        <v>41698</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>32.421999999999997</v>
+      </c>
+      <c r="D42">
+        <v>524.45799999999997</v>
+      </c>
+      <c r="E42">
+        <v>524.01</v>
+      </c>
+      <c r="F42">
+        <v>308.697</v>
+      </c>
+      <c r="G42">
+        <v>911.57299999999998</v>
+      </c>
+      <c r="H42">
+        <v>5359.92</v>
+      </c>
+      <c r="I42">
+        <v>57.42</v>
+      </c>
+      <c r="J42">
+        <v>1819.704</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-174.56800000000001</v>
+      </c>
+      <c r="N42">
+        <v>1178.175</v>
+      </c>
+      <c r="O42">
+        <v>3419.105</v>
+      </c>
+      <c r="P42">
+        <v>2037.1969999999999</v>
+      </c>
+      <c r="Q42">
+        <v>-53.311999999999998</v>
+      </c>
+      <c r="R42">
+        <v>41698</v>
+      </c>
+      <c r="S42">
+        <v>8000</v>
+      </c>
+      <c r="T42">
+        <v>1940.8150000000001</v>
+      </c>
+      <c r="U42">
+        <v>205.05500000000001</v>
+      </c>
+      <c r="V42">
+        <v>153.86099999999999</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-179.16800000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>32.421999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>41790</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>55.491999999999997</v>
+      </c>
+      <c r="D43">
+        <v>568.00800000000004</v>
+      </c>
+      <c r="E43">
+        <v>416.77100000000002</v>
+      </c>
+      <c r="F43">
+        <v>340.22899999999998</v>
+      </c>
+      <c r="G43">
+        <v>820.875</v>
+      </c>
+      <c r="H43">
+        <v>5248.4660000000003</v>
+      </c>
+      <c r="I43">
+        <v>57.372</v>
+      </c>
+      <c r="J43">
+        <v>1715.595</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1073.127</v>
+      </c>
+      <c r="O43">
+        <v>3221.1410000000001</v>
+      </c>
+      <c r="P43">
+        <v>1867.8979999999999</v>
+      </c>
+      <c r="Q43">
+        <v>15.943</v>
+      </c>
+      <c r="R43">
+        <v>41790</v>
+      </c>
+      <c r="S43">
+        <v>8000</v>
+      </c>
+      <c r="T43">
+        <v>2027.325</v>
+      </c>
+      <c r="U43">
+        <v>220.99799999999999</v>
+      </c>
+      <c r="V43">
+        <v>221.113</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-176.02</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>55.491999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>41882</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>46.517000000000003</v>
+      </c>
+      <c r="D44">
+        <v>556.01099999999997</v>
+      </c>
+      <c r="E44">
+        <v>365.59100000000001</v>
+      </c>
+      <c r="F44">
+        <v>338.13099999999997</v>
+      </c>
+      <c r="G44">
+        <v>811.74699999999996</v>
+      </c>
+      <c r="H44">
+        <v>5352.7920000000004</v>
+      </c>
+      <c r="I44">
+        <v>47.110999999999997</v>
+      </c>
+      <c r="J44">
+        <v>1681.4829999999999</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1137.3150000000001</v>
+      </c>
+      <c r="O44">
+        <v>3241.6219999999998</v>
+      </c>
+      <c r="P44">
+        <v>1911.877</v>
+      </c>
+      <c r="Q44">
+        <v>40.814999999999998</v>
+      </c>
+      <c r="R44">
+        <v>41882</v>
+      </c>
+      <c r="S44">
+        <v>8000</v>
+      </c>
+      <c r="T44">
+        <v>2111.17</v>
+      </c>
+      <c r="U44">
+        <v>261.81299999999999</v>
+      </c>
+      <c r="V44">
+        <v>167.476</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>41.198</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>46.517000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>421.37400000000002</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>688.80700000000002</v>
+      </c>
+      <c r="H45">
+        <v>5272.1360000000004</v>
+      </c>
+      <c r="I45">
+        <v>52.244999999999997</v>
+      </c>
+      <c r="J45">
+        <v>1806.098</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>955.05700000000002</v>
+      </c>
+      <c r="O45">
+        <v>3112.59</v>
+      </c>
+      <c r="P45">
+        <v>1842.355</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>41973</v>
+      </c>
+      <c r="S45">
+        <v>8800</v>
+      </c>
+      <c r="T45">
+        <v>2159.5459999999998</v>
+      </c>
+      <c r="U45">
+        <v>153.15600000000001</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>42063</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>39.520000000000003</v>
+      </c>
+      <c r="D46">
+        <v>513.87599999999998</v>
+      </c>
+      <c r="E46">
+        <v>439.18</v>
+      </c>
+      <c r="F46">
+        <v>313.03500000000003</v>
+      </c>
+      <c r="G46">
+        <v>849.91</v>
+      </c>
+      <c r="H46">
+        <v>5565.7</v>
+      </c>
+      <c r="I46">
+        <v>47.762999999999998</v>
+      </c>
+      <c r="J46">
+        <v>1956.366</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>-39.271999999999998</v>
+      </c>
+      <c r="N46">
+        <v>1053.1220000000001</v>
+      </c>
+      <c r="O46">
+        <v>3422.9490000000001</v>
+      </c>
+      <c r="P46">
+        <v>1992.3530000000001</v>
+      </c>
+      <c r="Q46">
+        <v>56.563000000000002</v>
+      </c>
+      <c r="R46">
+        <v>42063</v>
+      </c>
+      <c r="S46">
+        <v>8800</v>
+      </c>
+      <c r="T46">
+        <v>2142.7510000000002</v>
+      </c>
+      <c r="U46">
+        <v>209.71899999999999</v>
+      </c>
+      <c r="V46">
+        <v>188.03800000000001</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>82.584999999999994</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>39.520000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>42155</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>50.951999999999998</v>
+      </c>
+      <c r="D47">
+        <v>556.94000000000005</v>
+      </c>
+      <c r="E47">
+        <v>365.26499999999999</v>
+      </c>
+      <c r="F47">
+        <v>341.58499999999998</v>
+      </c>
+      <c r="G47">
+        <v>795.66899999999998</v>
+      </c>
+      <c r="H47">
+        <v>5692.8289999999997</v>
+      </c>
+      <c r="I47">
+        <v>52.116</v>
+      </c>
+      <c r="J47">
+        <v>2093.0909999999999</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>988.58</v>
+      </c>
+      <c r="O47">
+        <v>3529.6750000000002</v>
+      </c>
+      <c r="P47">
+        <v>2150.692</v>
+      </c>
+      <c r="Q47">
+        <v>16.16</v>
+      </c>
+      <c r="R47">
+        <v>42155</v>
+      </c>
+      <c r="S47">
+        <v>8800</v>
+      </c>
+      <c r="T47">
+        <v>2163.154</v>
+      </c>
+      <c r="U47">
+        <v>225.87899999999999</v>
+      </c>
+      <c r="V47">
+        <v>146.24600000000001</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>104.098</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>50.951999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>42247</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>557.9</v>
+      </c>
+      <c r="E48">
+        <v>330.673</v>
+      </c>
+      <c r="F48">
+        <v>348.1</v>
+      </c>
+      <c r="G48">
+        <v>790.24800000000005</v>
+      </c>
+      <c r="H48">
+        <v>5649.5990000000002</v>
+      </c>
+      <c r="I48">
+        <v>57.713000000000001</v>
+      </c>
+      <c r="J48">
+        <v>2071.6990000000001</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>962.67</v>
+      </c>
+      <c r="O48">
+        <v>3458.6170000000002</v>
+      </c>
+      <c r="P48">
+        <v>2107.7130000000002</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>42247</v>
+      </c>
+      <c r="S48">
+        <v>8800</v>
+      </c>
+      <c r="T48">
+        <v>2190.982</v>
+      </c>
+      <c r="U48">
+        <v>263.60500000000002</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>90.6</v>
+      </c>
+      <c r="D49">
+        <v>555.70000000000005</v>
+      </c>
+      <c r="E49">
+        <v>355.9</v>
+      </c>
+      <c r="F49">
+        <v>357.8</v>
+      </c>
+      <c r="G49">
+        <v>950.5</v>
+      </c>
+      <c r="H49">
+        <v>5577.5</v>
+      </c>
+      <c r="I49">
+        <v>59.2</v>
+      </c>
+      <c r="J49">
+        <v>2095.8000000000002</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>960.3</v>
+      </c>
+      <c r="O49">
+        <v>3376.6</v>
+      </c>
+      <c r="P49">
+        <v>2131.8000000000002</v>
+      </c>
+      <c r="Q49">
+        <v>29.5</v>
+      </c>
+      <c r="R49">
+        <v>42338</v>
+      </c>
+      <c r="S49">
+        <v>8600</v>
+      </c>
+      <c r="T49">
+        <v>2200.9</v>
+      </c>
+      <c r="U49">
+        <v>291.60000000000002</v>
+      </c>
+      <c r="V49">
+        <v>116</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-54.6</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>42429</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>45.2</v>
+      </c>
+      <c r="D50">
+        <v>548.5</v>
+      </c>
+      <c r="E50">
+        <v>408.84399999999999</v>
+      </c>
+      <c r="F50">
+        <v>337.4</v>
+      </c>
+      <c r="G50">
+        <v>805.77800000000002</v>
+      </c>
+      <c r="H50">
+        <v>6562.4380000000001</v>
+      </c>
+      <c r="I50">
+        <v>50.244</v>
+      </c>
+      <c r="J50">
+        <v>2410.0430000000001</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>-194</v>
+      </c>
+      <c r="N50">
+        <v>1595.412</v>
+      </c>
+      <c r="O50">
+        <v>4423.2809999999999</v>
+      </c>
+      <c r="P50">
+        <v>2998.201</v>
+      </c>
+      <c r="Q50">
+        <v>-231.9</v>
+      </c>
+      <c r="R50">
+        <v>42429</v>
+      </c>
+      <c r="S50">
+        <v>9000</v>
+      </c>
+      <c r="T50">
+        <v>2139.1570000000002</v>
+      </c>
+      <c r="U50">
+        <v>60.499000000000002</v>
+      </c>
+      <c r="V50">
+        <v>151.80000000000001</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>747.3</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>45.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>42521</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <v>587.9</v>
+      </c>
+      <c r="E51">
+        <v>378.02600000000001</v>
+      </c>
+      <c r="F51">
+        <v>375.1</v>
+      </c>
+      <c r="G51">
+        <v>863.35900000000004</v>
+      </c>
+      <c r="H51">
+        <v>6616.192</v>
+      </c>
+      <c r="I51">
+        <v>45.399000000000001</v>
+      </c>
+      <c r="J51">
+        <v>2487.5239999999999</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1450.08</v>
+      </c>
+      <c r="O51">
+        <v>4360.25</v>
+      </c>
+      <c r="P51">
+        <v>2961.32</v>
+      </c>
+      <c r="Q51">
+        <v>284.3</v>
+      </c>
+      <c r="R51">
+        <v>42521</v>
+      </c>
+      <c r="S51">
+        <v>9000</v>
+      </c>
+      <c r="T51">
+        <v>2255.942</v>
+      </c>
+      <c r="U51">
+        <v>345.54</v>
+      </c>
+      <c r="V51">
+        <v>176.7</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-38.6</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>42613</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>-31.7</v>
+      </c>
+      <c r="D52">
+        <v>724.6</v>
+      </c>
+      <c r="E52">
+        <v>514.70000000000005</v>
+      </c>
+      <c r="F52">
+        <v>454.9</v>
+      </c>
+      <c r="G52">
+        <v>929.5</v>
+      </c>
+      <c r="H52">
+        <v>14328.4</v>
+      </c>
+      <c r="I52">
+        <v>57.4</v>
+      </c>
+      <c r="J52">
+        <v>3140</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1414.6</v>
+      </c>
+      <c r="O52">
+        <v>5818.1</v>
+      </c>
+      <c r="P52">
+        <v>3266</v>
+      </c>
+      <c r="Q52">
+        <v>-144.80000000000001</v>
+      </c>
+      <c r="R52">
+        <v>42613</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>8510.2999999999993</v>
+      </c>
+      <c r="U52">
+        <v>200.7</v>
+      </c>
+      <c r="V52">
+        <v>146.6</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-379</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>-31.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>42704</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>89.3</v>
+      </c>
+      <c r="D53">
+        <v>873.8</v>
+      </c>
+      <c r="E53">
+        <v>635.6</v>
+      </c>
+      <c r="F53">
+        <v>519.5</v>
+      </c>
+      <c r="G53">
+        <v>933.5</v>
+      </c>
+      <c r="H53">
+        <v>13936.6</v>
+      </c>
+      <c r="I53">
+        <v>58.9</v>
+      </c>
+      <c r="J53">
+        <v>3279.3</v>
+      </c>
+      <c r="K53">
+        <v>104.6</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1412.4</v>
+      </c>
+      <c r="O53">
+        <v>5794.5</v>
+      </c>
+      <c r="P53">
+        <v>3383.9</v>
+      </c>
+      <c r="Q53">
+        <v>-61.8</v>
+      </c>
+      <c r="R53">
+        <v>42704</v>
+      </c>
+      <c r="S53">
+        <v>12500</v>
+      </c>
+      <c r="T53">
+        <v>8142.1</v>
+      </c>
+      <c r="U53">
+        <v>138.9</v>
+      </c>
+      <c r="V53">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-152.19999999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>42794</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>66</v>
+      </c>
+      <c r="D54">
+        <v>844.2</v>
+      </c>
+      <c r="E54">
+        <v>668.8</v>
+      </c>
+      <c r="F54">
+        <v>516.79999999999995</v>
+      </c>
+      <c r="G54">
+        <v>1044.5999999999999</v>
+      </c>
+      <c r="H54">
+        <v>14005.7</v>
+      </c>
+      <c r="I54">
+        <v>52.5</v>
+      </c>
+      <c r="J54">
+        <v>3145.8</v>
+      </c>
+      <c r="K54">
+        <v>582.9</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>-1057.5</v>
+      </c>
+      <c r="N54">
+        <v>1967.4</v>
+      </c>
+      <c r="O54">
+        <v>6255.8</v>
+      </c>
+      <c r="P54">
+        <v>3728.7</v>
+      </c>
+      <c r="Q54">
+        <v>15.9</v>
+      </c>
+      <c r="R54">
+        <v>42794</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>7749.9</v>
+      </c>
+      <c r="U54">
+        <v>154.80000000000001</v>
+      </c>
+      <c r="V54">
+        <v>250.7</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>-166.6</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>42886</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>99.3</v>
+      </c>
+      <c r="D55">
+        <v>906.1</v>
+      </c>
+      <c r="E55">
+        <v>669.7</v>
+      </c>
+      <c r="F55">
+        <v>568.4</v>
+      </c>
+      <c r="G55">
+        <v>1024.2</v>
+      </c>
+      <c r="H55">
+        <v>14071.2</v>
+      </c>
+      <c r="I55">
+        <v>60</v>
+      </c>
+      <c r="J55">
+        <v>3438.5</v>
+      </c>
+      <c r="K55">
+        <v>561.20000000000005</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1859.6</v>
+      </c>
+      <c r="O55">
+        <v>6404.3</v>
+      </c>
+      <c r="P55">
+        <v>3999.7</v>
+      </c>
+      <c r="Q55">
+        <v>7.7</v>
+      </c>
+      <c r="R55">
+        <v>42886</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>7666.9</v>
+      </c>
+      <c r="U55">
+        <v>162.5</v>
+      </c>
+      <c r="V55">
+        <v>200.6</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-126.6</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>42978</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>145.9</v>
+      </c>
+      <c r="D56">
+        <v>904.7</v>
+      </c>
+      <c r="E56">
+        <v>655.5</v>
+      </c>
+      <c r="F56">
+        <v>560</v>
+      </c>
+      <c r="G56">
+        <v>972.1</v>
+      </c>
+      <c r="H56">
+        <v>14016.9</v>
+      </c>
+      <c r="I56">
+        <v>49.9</v>
+      </c>
+      <c r="J56">
+        <v>3439.4</v>
+      </c>
+      <c r="K56">
+        <v>561.1</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>1840.7</v>
+      </c>
+      <c r="O56">
+        <v>6245.2</v>
+      </c>
+      <c r="P56">
+        <v>4000.5</v>
+      </c>
+      <c r="Q56">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="R56">
+        <v>42978</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>7771.7</v>
+      </c>
+      <c r="U56">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="V56">
+        <v>267.3</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>-208.1</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>145.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>43069</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>105.7</v>
+      </c>
+      <c r="D57">
+        <v>944.7</v>
+      </c>
+      <c r="E57">
+        <v>693.5</v>
+      </c>
+      <c r="F57">
+        <v>599.6</v>
+      </c>
+      <c r="G57">
+        <v>1015</v>
+      </c>
+      <c r="H57">
+        <v>14554.4</v>
+      </c>
+      <c r="I57">
+        <v>53.4</v>
+      </c>
+      <c r="J57">
+        <v>3613.1</v>
+      </c>
+      <c r="K57">
+        <v>576</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1906.1</v>
+      </c>
+      <c r="O57">
+        <v>6530.9</v>
+      </c>
+      <c r="P57">
+        <v>4193.3</v>
+      </c>
+      <c r="Q57">
+        <v>-20</v>
+      </c>
+      <c r="R57">
+        <v>43069</v>
+      </c>
+      <c r="S57">
+        <v>13000</v>
+      </c>
+      <c r="T57">
+        <v>8023.5</v>
+      </c>
+      <c r="U57">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="V57">
+        <v>242.9</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>172</v>
+      </c>
+      <c r="Y57">
+        <v>4.2</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>105.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>43159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>241.3</v>
+      </c>
+      <c r="D58">
+        <v>932.1</v>
+      </c>
+      <c r="E58">
+        <v>802.7</v>
+      </c>
+      <c r="F58">
+        <v>589.20000000000005</v>
+      </c>
+      <c r="G58">
+        <v>1165.8</v>
+      </c>
+      <c r="H58">
+        <v>14696.7</v>
+      </c>
+      <c r="I58">
+        <v>50.1</v>
+      </c>
+      <c r="J58">
+        <v>4189</v>
+      </c>
+      <c r="K58">
+        <v>90.9</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>-657</v>
+      </c>
+      <c r="N58">
+        <v>1480.4</v>
+      </c>
+      <c r="O58">
+        <v>6526</v>
+      </c>
+      <c r="P58">
+        <v>4279.8999999999996</v>
+      </c>
+      <c r="Q58">
+        <v>22.2</v>
+      </c>
+      <c r="R58">
+        <v>43159</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>8170.7</v>
+      </c>
+      <c r="U58">
+        <v>156</v>
+      </c>
+      <c r="V58">
+        <v>202.9</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>-118.9</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>241.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>43251</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>114.7</v>
+      </c>
+      <c r="D59">
+        <v>1008.3</v>
+      </c>
+      <c r="E59">
+        <v>704.2</v>
+      </c>
+      <c r="F59">
+        <v>639.9</v>
+      </c>
+      <c r="G59">
+        <v>2207.1</v>
+      </c>
+      <c r="H59">
+        <v>14465.8</v>
+      </c>
+      <c r="I59">
+        <v>42.1</v>
+      </c>
+      <c r="J59">
+        <v>4355.5</v>
+      </c>
+      <c r="K59">
+        <v>105.8</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1561.7</v>
+      </c>
+      <c r="O59">
+        <v>6689.2</v>
+      </c>
+      <c r="P59">
+        <v>4461.3</v>
+      </c>
+      <c r="Q59">
+        <v>3</v>
+      </c>
+      <c r="R59">
+        <v>43251</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>7776.6</v>
+      </c>
+      <c r="U59">
+        <v>159</v>
+      </c>
+      <c r="V59">
+        <v>382.7</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-275.39999999999998</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>114.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>43343</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>104.5</v>
+      </c>
+      <c r="D60">
+        <v>1001</v>
+      </c>
+      <c r="E60">
+        <v>760.6</v>
+      </c>
+      <c r="F60">
+        <v>625.70000000000005</v>
+      </c>
+      <c r="G60">
+        <v>1114.0999999999999</v>
+      </c>
+      <c r="H60">
+        <v>16206.3</v>
+      </c>
+      <c r="I60">
+        <v>39.6</v>
+      </c>
+      <c r="J60">
+        <v>4894.3999999999996</v>
+      </c>
+      <c r="K60">
+        <v>1166.3</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>2563.4</v>
+      </c>
+      <c r="O60">
+        <v>8307.7999999999993</v>
+      </c>
+      <c r="P60">
+        <v>6060.7</v>
+      </c>
+      <c r="Q60">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="R60">
+        <v>43343</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>7898.5</v>
+      </c>
+      <c r="U60">
+        <v>154.4</v>
+      </c>
+      <c r="V60">
+        <v>346.4</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>1595.3</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>104.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>43434</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>81.8</v>
+      </c>
+      <c r="D61">
+        <v>1067.8</v>
+      </c>
+      <c r="E61">
+        <v>792.9</v>
+      </c>
+      <c r="F61">
+        <v>658.7</v>
+      </c>
+      <c r="G61">
+        <v>1099.4000000000001</v>
+      </c>
+      <c r="H61">
+        <v>16062.3</v>
+      </c>
+      <c r="I61">
+        <v>42.2</v>
+      </c>
+      <c r="J61">
+        <v>4881.8999999999996</v>
+      </c>
+      <c r="K61">
+        <v>789.9</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>2320.3000000000002</v>
+      </c>
+      <c r="O61">
+        <v>8035.9</v>
+      </c>
+      <c r="P61">
+        <v>5679.1</v>
+      </c>
+      <c r="Q61">
+        <v>-34.4</v>
+      </c>
+      <c r="R61">
+        <v>43434</v>
+      </c>
+      <c r="S61">
+        <v>14900</v>
+      </c>
+      <c r="T61">
+        <v>8026.4</v>
+      </c>
+      <c r="U61">
+        <v>120</v>
+      </c>
+      <c r="V61">
+        <v>357.5</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>-328</v>
+      </c>
+      <c r="Y61">
+        <v>7.3</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>43524</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>109.7</v>
+      </c>
+      <c r="D62">
+        <v>1046.4000000000001</v>
+      </c>
+      <c r="E62">
+        <v>980.4</v>
+      </c>
+      <c r="F62">
+        <v>646.6</v>
+      </c>
+      <c r="G62">
+        <v>1326.2</v>
+      </c>
+      <c r="H62">
+        <v>16383.4</v>
+      </c>
+      <c r="I62">
+        <v>56.4</v>
+      </c>
+      <c r="J62">
+        <v>5104.3999999999996</v>
+      </c>
+      <c r="K62">
+        <v>484.9</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>-392.9</v>
+      </c>
+      <c r="N62">
+        <v>2087.1999999999998</v>
+      </c>
+      <c r="O62">
+        <v>8033.4</v>
+      </c>
+      <c r="P62">
+        <v>5596.3</v>
+      </c>
+      <c r="Q62">
+        <v>13.2</v>
+      </c>
+      <c r="R62">
+        <v>43524</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>8350</v>
+      </c>
+      <c r="U62">
+        <v>133.19999999999999</v>
+      </c>
+      <c r="V62">
+        <v>188</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>-111.9</v>
+      </c>
+      <c r="Y62">
+        <v>7</v>
+      </c>
+      <c r="Z62">
+        <v>-5.0999999999999996</v>
+      </c>
+      <c r="AA62">
+        <v>109.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>43616</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="D63">
+        <v>1135.5</v>
+      </c>
+      <c r="E63">
+        <v>854</v>
+      </c>
+      <c r="F63">
+        <v>707.5</v>
+      </c>
+      <c r="G63">
+        <v>1261.2</v>
+      </c>
+      <c r="H63">
+        <v>16033.3</v>
+      </c>
+      <c r="I63">
+        <v>33.6</v>
+      </c>
+      <c r="J63">
+        <v>4886.1000000000004</v>
+      </c>
+      <c r="K63">
+        <v>364.3</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>1919.7</v>
+      </c>
+      <c r="O63">
+        <v>7630.1</v>
+      </c>
+      <c r="P63">
+        <v>5257.8</v>
+      </c>
+      <c r="Q63">
+        <v>-23.7</v>
+      </c>
+      <c r="R63">
+        <v>43616</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>8403.2000000000007</v>
+      </c>
+      <c r="U63">
+        <v>109.5</v>
+      </c>
+      <c r="V63">
+        <v>424.7</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>-315.5</v>
+      </c>
+      <c r="Y63">
+        <v>7.4</v>
+      </c>
+      <c r="Z63">
+        <v>-0.5</v>
+      </c>
+      <c r="AA63">
+        <v>149.80000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>43708</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>40.1</v>
+      </c>
+      <c r="D64">
+        <v>1112.3</v>
+      </c>
+      <c r="E64">
+        <v>862.7</v>
+      </c>
+      <c r="F64">
+        <v>692.6</v>
+      </c>
+      <c r="G64">
+        <v>1189</v>
+      </c>
+      <c r="H64">
+        <v>15903.6</v>
+      </c>
+      <c r="I64">
+        <v>27.2</v>
+      </c>
+      <c r="J64">
+        <v>5044.2</v>
+      </c>
+      <c r="K64">
+        <v>1.2</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1663.3</v>
+      </c>
+      <c r="O64">
+        <v>7652.7</v>
+      </c>
+      <c r="P64">
+        <v>5052.3999999999996</v>
+      </c>
+      <c r="Q64">
+        <v>14.6</v>
+      </c>
+      <c r="R64">
+        <v>43708</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>8250.9</v>
+      </c>
+      <c r="U64">
+        <v>124.1</v>
+      </c>
+      <c r="V64">
+        <v>412.9</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-334.5</v>
+      </c>
+      <c r="Y64">
+        <v>7</v>
+      </c>
+      <c r="Z64">
+        <v>-1.3</v>
+      </c>
+      <c r="AA64">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>43799</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>203.1</v>
+      </c>
+      <c r="D65">
+        <v>1120.4000000000001</v>
+      </c>
+      <c r="E65">
+        <v>890.7</v>
+      </c>
+      <c r="F65">
+        <v>710.9</v>
+      </c>
+      <c r="G65">
+        <v>1307.8</v>
+      </c>
+      <c r="H65">
+        <v>16087.2</v>
+      </c>
+      <c r="I65">
+        <v>59.7</v>
+      </c>
+      <c r="J65">
+        <v>4867.8</v>
+      </c>
+      <c r="K65">
+        <v>251.1</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1969.2</v>
+      </c>
+      <c r="O65">
+        <v>7656.3</v>
+      </c>
+      <c r="P65">
+        <v>5125.5</v>
+      </c>
+      <c r="Q65">
+        <v>-12.6</v>
+      </c>
+      <c r="R65">
+        <v>43799</v>
+      </c>
+      <c r="S65">
+        <v>15500</v>
+      </c>
+      <c r="T65">
+        <v>8430.9</v>
+      </c>
+      <c r="U65">
+        <v>111.5</v>
+      </c>
+      <c r="V65">
+        <v>225.7</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>-196.1</v>
+      </c>
+      <c r="Y65">
+        <v>6.6</v>
+      </c>
+      <c r="Z65">
+        <v>6.9</v>
+      </c>
+      <c r="AA65">
+        <v>203.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>485</v>
+      </c>
+      <c r="D66">
+        <v>1080.8</v>
+      </c>
+      <c r="E66">
+        <v>979.7</v>
+      </c>
+      <c r="F66">
+        <v>665</v>
+      </c>
+      <c r="G66">
+        <v>1338.3</v>
+      </c>
+      <c r="H66">
+        <v>16380.1</v>
+      </c>
+      <c r="I66">
+        <v>32.6</v>
+      </c>
+      <c r="J66">
+        <v>4955</v>
+      </c>
+      <c r="K66">
+        <v>251.1</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-209.1</v>
+      </c>
+      <c r="N66">
+        <v>1922.5</v>
+      </c>
+      <c r="O66">
+        <v>7997</v>
+      </c>
+      <c r="P66">
+        <v>5607.6</v>
+      </c>
+      <c r="Q66">
+        <v>32.4</v>
+      </c>
+      <c r="R66">
+        <v>43890</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>8383.1</v>
+      </c>
+      <c r="U66">
+        <v>143.9</v>
+      </c>
+      <c r="V66">
+        <v>119.5</v>
+      </c>
+      <c r="W66">
+        <v>-67.7</v>
+      </c>
+      <c r="X66">
+        <v>-462.1</v>
+      </c>
+      <c r="Y66">
+        <v>342.2</v>
+      </c>
+      <c r="Z66">
+        <v>-3.6</v>
+      </c>
+      <c r="AA66">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>71.7</v>
+      </c>
+      <c r="D67">
+        <v>1026.5999999999999</v>
+      </c>
+      <c r="E67">
+        <v>876.1</v>
+      </c>
+      <c r="F67">
+        <v>638.29999999999995</v>
+      </c>
+      <c r="G67">
+        <v>1302.4000000000001</v>
+      </c>
+      <c r="H67">
+        <v>16128.9</v>
+      </c>
+      <c r="I67">
+        <v>20.5</v>
+      </c>
+      <c r="J67">
+        <v>5130.5</v>
+      </c>
+      <c r="K67">
+        <v>251</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1791.2</v>
+      </c>
+      <c r="O67">
+        <v>8007.3</v>
+      </c>
+      <c r="P67">
+        <v>5777.2</v>
+      </c>
+      <c r="Q67">
+        <v>63.9</v>
+      </c>
+      <c r="R67">
+        <v>43982</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>8121.6</v>
+      </c>
+      <c r="U67">
+        <v>207.8</v>
+      </c>
+      <c r="V67">
+        <v>278.2</v>
+      </c>
+      <c r="W67">
+        <v>-67.599999999999994</v>
+      </c>
+      <c r="X67">
+        <v>-100.2</v>
+      </c>
+      <c r="Y67">
+        <v>330.3</v>
+      </c>
+      <c r="Z67">
+        <v>-3.6</v>
+      </c>
+      <c r="AA67">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>162.9</v>
+      </c>
+      <c r="D68">
+        <v>1073.2</v>
+      </c>
+      <c r="E68">
+        <v>859.7</v>
+      </c>
+      <c r="F68">
+        <v>687.6</v>
+      </c>
+      <c r="G68">
+        <v>1226</v>
+      </c>
+      <c r="H68">
+        <v>16233.6</v>
+      </c>
+      <c r="I68">
+        <v>22.8</v>
+      </c>
+      <c r="J68">
+        <v>4701.8</v>
+      </c>
+      <c r="K68">
+        <v>251.1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1838.3</v>
+      </c>
+      <c r="O68">
+        <v>7626.7</v>
+      </c>
+      <c r="P68">
+        <v>5336.3</v>
+      </c>
+      <c r="Q68">
+        <v>-51</v>
+      </c>
+      <c r="R68">
+        <v>44074</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>8606.9</v>
+      </c>
+      <c r="U68">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="V68">
+        <v>402.8</v>
+      </c>
+      <c r="W68">
+        <v>-67.7</v>
+      </c>
+      <c r="X68">
+        <v>-464.7</v>
+      </c>
+      <c r="Y68">
+        <v>316.3</v>
+      </c>
+      <c r="Z68">
+        <v>-1.4</v>
+      </c>
+      <c r="AA68">
+        <v>162.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
         <v>151.1</v>
       </c>
-      <c r="D42">
+      <c r="D69">
         <v>1107.2</v>
       </c>
-      <c r="E42">
+      <c r="E69">
         <v>891.7</v>
       </c>
-      <c r="F42">
+      <c r="F69">
         <v>706.9</v>
       </c>
-      <c r="G42">
+      <c r="G69">
         <v>1233.3</v>
       </c>
-      <c r="H42">
+      <c r="H69">
         <v>16135.2</v>
       </c>
-      <c r="I42">
+      <c r="I69">
         <v>48.2</v>
       </c>
-      <c r="J42">
+      <c r="J69">
         <v>4636.1000000000004</v>
       </c>
-      <c r="K42">
+      <c r="K69">
         <v>268.10000000000002</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
         <v>1978.8</v>
       </c>
-      <c r="O42">
+      <c r="O69">
         <v>7592</v>
       </c>
-      <c r="P42">
+      <c r="P69">
         <v>5271</v>
       </c>
-      <c r="Q42">
+      <c r="Q69">
         <v>-31.2</v>
       </c>
-      <c r="R42">
+      <c r="R69">
         <v>44165</v>
       </c>
-      <c r="S42">
+      <c r="S69">
         <v>16000</v>
       </c>
-      <c r="T42">
+      <c r="T69">
         <v>8543.2000000000007</v>
       </c>
-      <c r="U42">
+      <c r="U69">
         <v>125.6</v>
       </c>
-      <c r="V42">
+      <c r="V69">
         <v>338.3</v>
       </c>
-      <c r="W42">
+      <c r="W69">
         <v>-67.400000000000006</v>
       </c>
-      <c r="X42">
+      <c r="X69">
         <v>-317.60000000000002</v>
       </c>
-      <c r="Y42">
+      <c r="Y69">
         <v>303.3</v>
       </c>
-      <c r="Z42">
+      <c r="Z69">
         <v>8.6</v>
       </c>
-      <c r="AA42">
+      <c r="AA69">
         <v>151.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>44255</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="D70">
+        <v>1119.9000000000001</v>
+      </c>
+      <c r="E70">
+        <v>981.9</v>
+      </c>
+      <c r="F70">
+        <v>704.7</v>
+      </c>
+      <c r="G70">
+        <v>2250.3000000000002</v>
+      </c>
+      <c r="H70">
+        <v>16669.599999999999</v>
+      </c>
+      <c r="I70">
+        <v>31</v>
+      </c>
+      <c r="J70">
+        <v>4642.7</v>
+      </c>
+      <c r="K70">
+        <v>478.1</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>-50</v>
+      </c>
+      <c r="N70">
+        <v>2361.1</v>
+      </c>
+      <c r="O70">
+        <v>7965</v>
+      </c>
+      <c r="P70">
+        <v>5475.8</v>
+      </c>
+      <c r="Q70">
+        <v>46.4</v>
+      </c>
+      <c r="R70">
+        <v>44255</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>8704.6</v>
+      </c>
+      <c r="U70">
+        <v>172</v>
+      </c>
+      <c r="V70">
+        <v>244.5</v>
+      </c>
+      <c r="W70">
+        <v>-79.3</v>
+      </c>
+      <c r="X70">
+        <v>56.7</v>
+      </c>
+      <c r="Y70">
+        <v>293</v>
+      </c>
+      <c r="Z70">
+        <v>-152.30000000000001</v>
+      </c>
+      <c r="AA70">
+        <v>149.30000000000001</v>
       </c>
     </row>
   </sheetData>
